--- a/Data/Data_Raw/Country codes & metadata/wbcodes_equiv_unicef.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/wbcodes_equiv_unicef.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llohi\Documents\WB\Data Portal\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{387BC7E2-38E7-4B11-8A32-2A1822E8744D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC875A96-3704-4167-BA38-AAF67288AE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4113CD76-B60E-46BE-A214-6074E1BAFEC6}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{4113CD76-B60E-46BE-A214-6074E1BAFEC6}"/>
   </bookViews>
   <sheets>
     <sheet name="unicef" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="443">
   <si>
     <t>unicef_code</t>
   </si>
@@ -1356,13 +1356,22 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Kosovo (UNSCR 1244)</t>
+  </si>
+  <si>
+    <t>XKX</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1370,16 +1379,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1387,15 +1409,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{DAE8339E-E881-4A6E-9FD3-60A5A5FB6B42}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1411,7 +1458,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1707,15 +1754,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E591674A-0250-4337-8608-CACAB3DE8C37}">
-  <dimension ref="A1:D203"/>
+  <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="F200" sqref="F200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1729,7 +1776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1743,7 +1790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1757,7 +1804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1771,7 +1818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1785,7 +1832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1799,7 +1846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1813,7 +1860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1827,7 +1874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1841,7 +1888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1855,7 +1902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1869,7 +1916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1883,7 +1930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1897,7 +1944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1911,7 +1958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1925,7 +1972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1939,7 +1986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1953,7 +2000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1967,7 +2014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1981,7 +2028,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1995,7 +2042,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2009,7 +2056,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2023,7 +2070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2037,7 +2084,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2051,7 +2098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -2065,7 +2112,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2079,7 +2126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -2093,7 +2140,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -2107,7 +2154,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2121,7 +2168,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2135,7 +2182,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -2149,7 +2196,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -2163,7 +2210,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -2177,7 +2224,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -2191,7 +2238,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -2205,7 +2252,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -2219,7 +2266,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -2233,7 +2280,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -2247,7 +2294,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -2261,7 +2308,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -2275,7 +2322,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -2289,7 +2336,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -2303,7 +2350,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -2317,7 +2364,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -2331,7 +2378,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -2345,7 +2392,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -2359,7 +2406,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -2373,7 +2420,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -2387,7 +2434,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -2401,7 +2448,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -2415,7 +2462,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -2429,7 +2476,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -2443,7 +2490,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>117</v>
       </c>
@@ -2457,7 +2504,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -2471,7 +2518,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>121</v>
       </c>
@@ -2485,7 +2532,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -2499,7 +2546,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -2513,7 +2560,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>128</v>
       </c>
@@ -2527,7 +2574,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>130</v>
       </c>
@@ -2541,7 +2588,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>132</v>
       </c>
@@ -2555,7 +2602,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -2569,7 +2616,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -2583,7 +2630,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>139</v>
       </c>
@@ -2597,7 +2644,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -2611,7 +2658,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>143</v>
       </c>
@@ -2625,7 +2672,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>145</v>
       </c>
@@ -2639,7 +2686,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>147</v>
       </c>
@@ -2653,7 +2700,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>150</v>
       </c>
@@ -2667,7 +2714,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>152</v>
       </c>
@@ -2681,7 +2728,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>154</v>
       </c>
@@ -2695,7 +2742,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>156</v>
       </c>
@@ -2709,7 +2756,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>158</v>
       </c>
@@ -2723,7 +2770,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>160</v>
       </c>
@@ -2737,7 +2784,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>162</v>
       </c>
@@ -2751,7 +2798,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>164</v>
       </c>
@@ -2765,7 +2812,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>166</v>
       </c>
@@ -2779,7 +2826,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>168</v>
       </c>
@@ -2793,7 +2840,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>170</v>
       </c>
@@ -2807,7 +2854,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>172</v>
       </c>
@@ -2821,7 +2868,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>174</v>
       </c>
@@ -2835,7 +2882,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>176</v>
       </c>
@@ -2849,7 +2896,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>178</v>
       </c>
@@ -2863,7 +2910,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>180</v>
       </c>
@@ -2877,7 +2924,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>182</v>
       </c>
@@ -2891,7 +2938,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>185</v>
       </c>
@@ -2905,7 +2952,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>187</v>
       </c>
@@ -2919,7 +2966,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>189</v>
       </c>
@@ -2933,7 +2980,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>191</v>
       </c>
@@ -2947,7 +2994,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>193</v>
       </c>
@@ -2961,7 +3008,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>195</v>
       </c>
@@ -2975,7 +3022,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>197</v>
       </c>
@@ -2989,7 +3036,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>199</v>
       </c>
@@ -3003,7 +3050,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>201</v>
       </c>
@@ -3017,7 +3064,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>203</v>
       </c>
@@ -3031,7 +3078,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>205</v>
       </c>
@@ -3045,7 +3092,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>207</v>
       </c>
@@ -3059,7 +3106,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>210</v>
       </c>
@@ -3073,7 +3120,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>213</v>
       </c>
@@ -3087,7 +3134,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>215</v>
       </c>
@@ -3101,7 +3148,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>217</v>
       </c>
@@ -3115,7 +3162,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>219</v>
       </c>
@@ -3129,7 +3176,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>221</v>
       </c>
@@ -3143,7 +3190,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>223</v>
       </c>
@@ -3157,7 +3204,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>225</v>
       </c>
@@ -3171,7 +3218,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>227</v>
       </c>
@@ -3185,7 +3232,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>229</v>
       </c>
@@ -3199,7 +3246,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>231</v>
       </c>
@@ -3213,7 +3260,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>233</v>
       </c>
@@ -3227,7 +3274,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>235</v>
       </c>
@@ -3241,7 +3288,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>237</v>
       </c>
@@ -3255,7 +3302,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>239</v>
       </c>
@@ -3269,7 +3316,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>241</v>
       </c>
@@ -3283,7 +3330,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>243</v>
       </c>
@@ -3297,7 +3344,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>245</v>
       </c>
@@ -3311,7 +3358,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>247</v>
       </c>
@@ -3325,7 +3372,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>249</v>
       </c>
@@ -3339,7 +3386,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>252</v>
       </c>
@@ -3353,7 +3400,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>254</v>
       </c>
@@ -3367,7 +3414,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>256</v>
       </c>
@@ -3381,7 +3428,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>259</v>
       </c>
@@ -3395,7 +3442,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>261</v>
       </c>
@@ -3409,7 +3456,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>263</v>
       </c>
@@ -3423,7 +3470,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>265</v>
       </c>
@@ -3437,7 +3484,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>267</v>
       </c>
@@ -3451,7 +3498,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>269</v>
       </c>
@@ -3465,7 +3512,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>271</v>
       </c>
@@ -3479,7 +3526,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>273</v>
       </c>
@@ -3493,7 +3540,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>275</v>
       </c>
@@ -3507,7 +3554,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>277</v>
       </c>
@@ -3521,7 +3568,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>279</v>
       </c>
@@ -3535,7 +3582,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>281</v>
       </c>
@@ -3549,7 +3596,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>283</v>
       </c>
@@ -3563,7 +3610,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>285</v>
       </c>
@@ -3577,7 +3624,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>287</v>
       </c>
@@ -3591,7 +3638,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>289</v>
       </c>
@@ -3605,7 +3652,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>291</v>
       </c>
@@ -3619,7 +3666,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>293</v>
       </c>
@@ -3633,7 +3680,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>295</v>
       </c>
@@ -3647,7 +3694,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>297</v>
       </c>
@@ -3661,7 +3708,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>299</v>
       </c>
@@ -3675,7 +3722,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>301</v>
       </c>
@@ -3689,7 +3736,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>303</v>
       </c>
@@ -3703,7 +3750,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>305</v>
       </c>
@@ -3717,7 +3764,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>307</v>
       </c>
@@ -3731,7 +3778,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>309</v>
       </c>
@@ -3745,7 +3792,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>312</v>
       </c>
@@ -3759,7 +3806,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>315</v>
       </c>
@@ -3773,7 +3820,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>318</v>
       </c>
@@ -3787,7 +3834,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>320</v>
       </c>
@@ -3801,7 +3848,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>322</v>
       </c>
@@ -3815,7 +3862,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>325</v>
       </c>
@@ -3829,7 +3876,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>328</v>
       </c>
@@ -3843,7 +3890,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>331</v>
       </c>
@@ -3857,7 +3904,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>333</v>
       </c>
@@ -3871,7 +3918,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>335</v>
       </c>
@@ -3885,7 +3932,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>337</v>
       </c>
@@ -3899,7 +3946,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>339</v>
       </c>
@@ -3913,7 +3960,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>341</v>
       </c>
@@ -3927,7 +3974,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>343</v>
       </c>
@@ -3941,7 +3988,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>345</v>
       </c>
@@ -3955,7 +4002,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>347</v>
       </c>
@@ -3969,7 +4016,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>349</v>
       </c>
@@ -3983,7 +4030,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>352</v>
       </c>
@@ -3997,7 +4044,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>354</v>
       </c>
@@ -4011,7 +4058,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>356</v>
       </c>
@@ -4025,7 +4072,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>358</v>
       </c>
@@ -4039,7 +4086,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>360</v>
       </c>
@@ -4053,7 +4100,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>362</v>
       </c>
@@ -4067,7 +4114,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>364</v>
       </c>
@@ -4081,7 +4128,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>366</v>
       </c>
@@ -4095,7 +4142,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>368</v>
       </c>
@@ -4109,7 +4156,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>370</v>
       </c>
@@ -4123,7 +4170,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>372</v>
       </c>
@@ -4137,7 +4184,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>374</v>
       </c>
@@ -4151,7 +4198,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>376</v>
       </c>
@@ -4165,7 +4212,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>378</v>
       </c>
@@ -4179,7 +4226,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>380</v>
       </c>
@@ -4193,7 +4240,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>382</v>
       </c>
@@ -4207,7 +4254,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>384</v>
       </c>
@@ -4221,7 +4268,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>387</v>
       </c>
@@ -4235,7 +4282,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>389</v>
       </c>
@@ -4249,7 +4296,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>391</v>
       </c>
@@ -4263,7 +4310,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>393</v>
       </c>
@@ -4277,7 +4324,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>395</v>
       </c>
@@ -4291,7 +4338,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>397</v>
       </c>
@@ -4305,7 +4352,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>399</v>
       </c>
@@ -4319,7 +4366,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>401</v>
       </c>
@@ -4333,7 +4380,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>403</v>
       </c>
@@ -4347,7 +4394,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>406</v>
       </c>
@@ -4361,7 +4408,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>408</v>
       </c>
@@ -4375,7 +4422,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>410</v>
       </c>
@@ -4389,7 +4436,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>412</v>
       </c>
@@ -4403,7 +4450,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>414</v>
       </c>
@@ -4417,7 +4464,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>416</v>
       </c>
@@ -4431,7 +4478,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>419</v>
       </c>
@@ -4445,7 +4492,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>421</v>
       </c>
@@ -4459,7 +4506,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>423</v>
       </c>
@@ -4473,7 +4520,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>425</v>
       </c>
@@ -4487,7 +4534,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>427</v>
       </c>
@@ -4501,7 +4548,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>430</v>
       </c>
@@ -4515,7 +4562,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>433</v>
       </c>
@@ -4529,7 +4576,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>436</v>
       </c>
@@ -4543,7 +4590,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>438</v>
       </c>
@@ -4555,6 +4602,20 @@
       </c>
       <c r="D203" t="s">
         <v>438</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_Raw/Country codes & metadata/wbcodes_equiv_unicef.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/wbcodes_equiv_unicef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC875A96-3704-4167-BA38-AAF67288AE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15691C8-5F65-4235-BFEE-8E6FFA2684EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{4113CD76-B60E-46BE-A214-6074E1BAFEC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{4113CD76-B60E-46BE-A214-6074E1BAFEC6}"/>
   </bookViews>
   <sheets>
     <sheet name="unicef" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="440">
   <si>
     <t>unicef_code</t>
   </si>
@@ -380,9 +380,6 @@
     <t>Congo, Dem. Rep.</t>
   </si>
   <si>
-    <t>ZAR</t>
-  </si>
-  <si>
     <t>DNK</t>
   </si>
   <si>
@@ -812,9 +809,6 @@
     <t>Montenegro</t>
   </si>
   <si>
-    <t>MNT</t>
-  </si>
-  <si>
     <t>MSR</t>
   </si>
   <si>
@@ -987,9 +981,6 @@
   </si>
   <si>
     <t>Romania</t>
-  </si>
-  <si>
-    <t>ROM</t>
   </si>
   <si>
     <t>RUS</t>
@@ -1756,13 +1747,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E591674A-0250-4337-8608-CACAB3DE8C37}">
   <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="F200" sqref="F200"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1776,7 +1767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1790,7 +1781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1804,7 +1795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1818,7 +1809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1832,7 +1823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1846,7 +1837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1860,7 +1851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1874,7 +1865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1888,7 +1879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1902,7 +1893,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1916,7 +1907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1930,7 +1921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1944,7 +1935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1958,7 +1949,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1972,7 +1963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1986,7 +1977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2000,7 +1991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2014,7 +2005,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2028,7 +2019,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2042,7 +2033,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2056,7 +2047,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2070,7 +2061,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2084,7 +2075,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2098,7 +2089,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -2112,7 +2103,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2126,7 +2117,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -2140,7 +2131,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -2154,7 +2145,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2168,7 +2159,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2182,7 +2173,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -2196,7 +2187,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -2210,7 +2201,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -2224,7 +2215,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -2238,7 +2229,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -2252,7 +2243,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -2266,7 +2257,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -2280,7 +2271,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -2294,7 +2285,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -2308,7 +2299,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -2322,7 +2313,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -2336,7 +2327,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -2350,7 +2341,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -2364,7 +2355,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -2378,7 +2369,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -2392,7 +2383,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -2406,7 +2397,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -2420,7 +2411,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -2434,7 +2425,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -2448,7 +2439,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -2462,7 +2453,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -2473,2149 +2464,2149 @@
         <v>113</v>
       </c>
       <c r="D51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>115</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>116</v>
       </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" t="s">
         <v>116</v>
       </c>
-      <c r="D52" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>118</v>
       </c>
-      <c r="C53" t="s">
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" t="s">
         <v>118</v>
       </c>
-      <c r="D53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>119</v>
-      </c>
-      <c r="B54" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>120</v>
       </c>
-      <c r="C54" t="s">
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" t="s">
         <v>120</v>
       </c>
-      <c r="D54" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" t="s">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>122</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" t="s">
         <v>122</v>
       </c>
-      <c r="D55" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" t="s">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>124</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" t="s">
         <v>124</v>
       </c>
-      <c r="D56" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>125</v>
-      </c>
-      <c r="B57" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>127</v>
       </c>
-      <c r="D57" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
         <v>128</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>129</v>
       </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" t="s">
         <v>129</v>
       </c>
-      <c r="D58" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" t="s">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>131</v>
       </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" t="s">
         <v>131</v>
       </c>
-      <c r="D59" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" t="s">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>133</v>
       </c>
-      <c r="C60" t="s">
+      <c r="B61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" t="s">
         <v>133</v>
       </c>
-      <c r="D60" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>134</v>
-      </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>135</v>
       </c>
-      <c r="C61" t="s">
+      <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" t="s">
         <v>135</v>
       </c>
-      <c r="D61" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>136</v>
-      </c>
-      <c r="B62" t="s">
-        <v>137</v>
-      </c>
-      <c r="C62" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>138</v>
       </c>
-      <c r="D62" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
         <v>139</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>140</v>
       </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" t="s">
         <v>140</v>
       </c>
-      <c r="D63" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>141</v>
-      </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>142</v>
       </c>
-      <c r="C64" t="s">
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65" t="s">
         <v>142</v>
       </c>
-      <c r="D64" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>143</v>
-      </c>
-      <c r="B65" t="s">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>144</v>
       </c>
-      <c r="C65" t="s">
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" t="s">
         <v>144</v>
       </c>
-      <c r="D65" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>145</v>
-      </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>146</v>
       </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" t="s">
         <v>146</v>
       </c>
-      <c r="D66" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>147</v>
-      </c>
-      <c r="B67" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>149</v>
       </c>
-      <c r="D67" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
         <v>150</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>151</v>
       </c>
-      <c r="C68" t="s">
+      <c r="B69" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" t="s">
         <v>151</v>
       </c>
-      <c r="D68" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>152</v>
-      </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>153</v>
       </c>
-      <c r="C69" t="s">
+      <c r="B70" t="s">
+        <v>154</v>
+      </c>
+      <c r="C70" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" t="s">
         <v>153</v>
       </c>
-      <c r="D69" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>154</v>
-      </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>155</v>
       </c>
-      <c r="C70" t="s">
+      <c r="B71" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" t="s">
         <v>155</v>
       </c>
-      <c r="D70" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>156</v>
-      </c>
-      <c r="B71" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>157</v>
       </c>
-      <c r="C71" t="s">
+      <c r="B72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" t="s">
         <v>157</v>
       </c>
-      <c r="D71" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>158</v>
-      </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>159</v>
       </c>
-      <c r="C72" t="s">
+      <c r="B73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" t="s">
         <v>159</v>
       </c>
-      <c r="D72" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>160</v>
-      </c>
-      <c r="B73" t="s">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>161</v>
       </c>
-      <c r="C73" t="s">
+      <c r="B74" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" t="s">
         <v>161</v>
       </c>
-      <c r="D73" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>162</v>
-      </c>
-      <c r="B74" t="s">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>163</v>
       </c>
-      <c r="C74" t="s">
+      <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" t="s">
         <v>163</v>
       </c>
-      <c r="D74" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>164</v>
-      </c>
-      <c r="B75" t="s">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>165</v>
       </c>
-      <c r="C75" t="s">
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" t="s">
         <v>165</v>
       </c>
-      <c r="D75" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>166</v>
-      </c>
-      <c r="B76" t="s">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>167</v>
       </c>
-      <c r="C76" t="s">
+      <c r="B77" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" t="s">
         <v>167</v>
       </c>
-      <c r="D76" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>168</v>
-      </c>
-      <c r="B77" t="s">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>169</v>
       </c>
-      <c r="C77" t="s">
+      <c r="B78" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" t="s">
+        <v>170</v>
+      </c>
+      <c r="D78" t="s">
         <v>169</v>
       </c>
-      <c r="D77" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>170</v>
-      </c>
-      <c r="B78" t="s">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>171</v>
       </c>
-      <c r="C78" t="s">
+      <c r="B79" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" t="s">
+        <v>172</v>
+      </c>
+      <c r="D79" t="s">
         <v>171</v>
       </c>
-      <c r="D78" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>172</v>
-      </c>
-      <c r="B79" t="s">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>173</v>
       </c>
-      <c r="C79" t="s">
+      <c r="B80" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80" t="s">
+        <v>174</v>
+      </c>
+      <c r="D80" t="s">
         <v>173</v>
       </c>
-      <c r="D79" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>174</v>
-      </c>
-      <c r="B80" t="s">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>175</v>
       </c>
-      <c r="C80" t="s">
+      <c r="B81" t="s">
+        <v>176</v>
+      </c>
+      <c r="C81" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" t="s">
         <v>175</v>
       </c>
-      <c r="D80" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>176</v>
-      </c>
-      <c r="B81" t="s">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>177</v>
       </c>
-      <c r="C81" t="s">
+      <c r="B82" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" t="s">
+        <v>178</v>
+      </c>
+      <c r="D82" t="s">
         <v>177</v>
       </c>
-      <c r="D81" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>178</v>
-      </c>
-      <c r="B82" t="s">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>179</v>
       </c>
-      <c r="C82" t="s">
+      <c r="B83" t="s">
+        <v>180</v>
+      </c>
+      <c r="C83" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" t="s">
         <v>179</v>
       </c>
-      <c r="D82" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>180</v>
-      </c>
-      <c r="B83" t="s">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>181</v>
       </c>
-      <c r="C83" t="s">
+      <c r="B84" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" t="s">
         <v>181</v>
       </c>
-      <c r="D83" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>182</v>
-      </c>
-      <c r="B84" t="s">
-        <v>183</v>
-      </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>184</v>
       </c>
-      <c r="D84" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
         <v>185</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
+        <v>185</v>
+      </c>
+      <c r="D85" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>186</v>
       </c>
-      <c r="C85" t="s">
+      <c r="B86" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" t="s">
+        <v>187</v>
+      </c>
+      <c r="D86" t="s">
         <v>186</v>
       </c>
-      <c r="D85" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>187</v>
-      </c>
-      <c r="B86" t="s">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>188</v>
       </c>
-      <c r="C86" t="s">
+      <c r="B87" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" t="s">
+        <v>189</v>
+      </c>
+      <c r="D87" t="s">
         <v>188</v>
       </c>
-      <c r="D86" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>189</v>
-      </c>
-      <c r="B87" t="s">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>190</v>
       </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88" t="s">
+        <v>191</v>
+      </c>
+      <c r="D88" t="s">
         <v>190</v>
       </c>
-      <c r="D87" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>191</v>
-      </c>
-      <c r="B88" t="s">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>192</v>
       </c>
-      <c r="C88" t="s">
+      <c r="B89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" t="s">
+        <v>193</v>
+      </c>
+      <c r="D89" t="s">
         <v>192</v>
       </c>
-      <c r="D88" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>193</v>
-      </c>
-      <c r="B89" t="s">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>194</v>
       </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90" t="s">
         <v>194</v>
       </c>
-      <c r="D89" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>195</v>
-      </c>
-      <c r="B90" t="s">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>196</v>
       </c>
-      <c r="C90" t="s">
+      <c r="B91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" t="s">
+        <v>197</v>
+      </c>
+      <c r="D91" t="s">
         <v>196</v>
       </c>
-      <c r="D90" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>197</v>
-      </c>
-      <c r="B91" t="s">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>198</v>
       </c>
-      <c r="C91" t="s">
+      <c r="B92" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" t="s">
+        <v>199</v>
+      </c>
+      <c r="D92" t="s">
         <v>198</v>
       </c>
-      <c r="D91" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>199</v>
-      </c>
-      <c r="B92" t="s">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>200</v>
       </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" t="s">
         <v>200</v>
       </c>
-      <c r="D92" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>201</v>
-      </c>
-      <c r="B93" t="s">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>202</v>
       </c>
-      <c r="C93" t="s">
+      <c r="B94" t="s">
+        <v>203</v>
+      </c>
+      <c r="C94" t="s">
+        <v>203</v>
+      </c>
+      <c r="D94" t="s">
         <v>202</v>
       </c>
-      <c r="D93" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>203</v>
-      </c>
-      <c r="B94" t="s">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>204</v>
       </c>
-      <c r="C94" t="s">
+      <c r="B95" t="s">
+        <v>205</v>
+      </c>
+      <c r="C95" t="s">
+        <v>205</v>
+      </c>
+      <c r="D95" t="s">
         <v>204</v>
       </c>
-      <c r="D94" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>205</v>
-      </c>
-      <c r="B95" t="s">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>206</v>
       </c>
-      <c r="C95" t="s">
+      <c r="B96" t="s">
+        <v>207</v>
+      </c>
+      <c r="C96" t="s">
+        <v>208</v>
+      </c>
+      <c r="D96" t="s">
         <v>206</v>
       </c>
-      <c r="D95" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>207</v>
-      </c>
-      <c r="B96" t="s">
-        <v>208</v>
-      </c>
-      <c r="C96" t="s">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>209</v>
       </c>
-      <c r="D96" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
         <v>210</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>211</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>212</v>
       </c>
-      <c r="D97" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="B98" t="s">
         <v>213</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
+        <v>213</v>
+      </c>
+      <c r="D98" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>214</v>
       </c>
-      <c r="C98" t="s">
+      <c r="B99" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" t="s">
+        <v>215</v>
+      </c>
+      <c r="D99" t="s">
         <v>214</v>
       </c>
-      <c r="D98" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>215</v>
-      </c>
-      <c r="B99" t="s">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>216</v>
       </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" t="s">
+        <v>217</v>
+      </c>
+      <c r="D100" t="s">
         <v>216</v>
       </c>
-      <c r="D99" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>217</v>
-      </c>
-      <c r="B100" t="s">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>218</v>
       </c>
-      <c r="C100" t="s">
+      <c r="B101" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" t="s">
+        <v>219</v>
+      </c>
+      <c r="D101" t="s">
         <v>218</v>
       </c>
-      <c r="D100" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>219</v>
-      </c>
-      <c r="B101" t="s">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>220</v>
       </c>
-      <c r="C101" t="s">
+      <c r="B102" t="s">
+        <v>221</v>
+      </c>
+      <c r="C102" t="s">
+        <v>221</v>
+      </c>
+      <c r="D102" t="s">
         <v>220</v>
       </c>
-      <c r="D101" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>221</v>
-      </c>
-      <c r="B102" t="s">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>222</v>
       </c>
-      <c r="C102" t="s">
+      <c r="B103" t="s">
+        <v>223</v>
+      </c>
+      <c r="C103" t="s">
+        <v>223</v>
+      </c>
+      <c r="D103" t="s">
         <v>222</v>
       </c>
-      <c r="D102" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>223</v>
-      </c>
-      <c r="B103" t="s">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>224</v>
       </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>225</v>
+      </c>
+      <c r="C104" t="s">
+        <v>225</v>
+      </c>
+      <c r="D104" t="s">
         <v>224</v>
       </c>
-      <c r="D103" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>225</v>
-      </c>
-      <c r="B104" t="s">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>226</v>
       </c>
-      <c r="C104" t="s">
+      <c r="B105" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" t="s">
+        <v>227</v>
+      </c>
+      <c r="D105" t="s">
         <v>226</v>
       </c>
-      <c r="D104" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>227</v>
-      </c>
-      <c r="B105" t="s">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>228</v>
       </c>
-      <c r="C105" t="s">
+      <c r="B106" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" t="s">
+        <v>229</v>
+      </c>
+      <c r="D106" t="s">
         <v>228</v>
       </c>
-      <c r="D105" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>229</v>
-      </c>
-      <c r="B106" t="s">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>230</v>
       </c>
-      <c r="C106" t="s">
+      <c r="B107" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" t="s">
+        <v>231</v>
+      </c>
+      <c r="D107" t="s">
         <v>230</v>
       </c>
-      <c r="D106" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>231</v>
-      </c>
-      <c r="B107" t="s">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>232</v>
       </c>
-      <c r="C107" t="s">
+      <c r="B108" t="s">
+        <v>233</v>
+      </c>
+      <c r="C108" t="s">
+        <v>233</v>
+      </c>
+      <c r="D108" t="s">
         <v>232</v>
       </c>
-      <c r="D107" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>233</v>
-      </c>
-      <c r="B108" t="s">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>234</v>
       </c>
-      <c r="C108" t="s">
+      <c r="B109" t="s">
+        <v>235</v>
+      </c>
+      <c r="C109" t="s">
+        <v>235</v>
+      </c>
+      <c r="D109" t="s">
         <v>234</v>
       </c>
-      <c r="D108" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>235</v>
-      </c>
-      <c r="B109" t="s">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>236</v>
       </c>
-      <c r="C109" t="s">
+      <c r="B110" t="s">
+        <v>237</v>
+      </c>
+      <c r="C110" t="s">
+        <v>237</v>
+      </c>
+      <c r="D110" t="s">
         <v>236</v>
       </c>
-      <c r="D109" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>237</v>
-      </c>
-      <c r="B110" t="s">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>238</v>
       </c>
-      <c r="C110" t="s">
+      <c r="B111" t="s">
+        <v>239</v>
+      </c>
+      <c r="C111" t="s">
+        <v>239</v>
+      </c>
+      <c r="D111" t="s">
         <v>238</v>
       </c>
-      <c r="D110" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>239</v>
-      </c>
-      <c r="B111" t="s">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>240</v>
       </c>
-      <c r="C111" t="s">
+      <c r="B112" t="s">
+        <v>241</v>
+      </c>
+      <c r="C112" t="s">
+        <v>241</v>
+      </c>
+      <c r="D112" t="s">
         <v>240</v>
       </c>
-      <c r="D111" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>241</v>
-      </c>
-      <c r="B112" t="s">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>242</v>
       </c>
-      <c r="C112" t="s">
+      <c r="B113" t="s">
+        <v>243</v>
+      </c>
+      <c r="C113" t="s">
+        <v>243</v>
+      </c>
+      <c r="D113" t="s">
         <v>242</v>
       </c>
-      <c r="D112" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>243</v>
-      </c>
-      <c r="B113" t="s">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>244</v>
       </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
+        <v>245</v>
+      </c>
+      <c r="C114" t="s">
+        <v>245</v>
+      </c>
+      <c r="D114" t="s">
         <v>244</v>
       </c>
-      <c r="D113" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>245</v>
-      </c>
-      <c r="B114" t="s">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>246</v>
       </c>
-      <c r="C114" t="s">
+      <c r="B115" t="s">
+        <v>247</v>
+      </c>
+      <c r="C115" t="s">
+        <v>247</v>
+      </c>
+      <c r="D115" t="s">
         <v>246</v>
       </c>
-      <c r="D114" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>247</v>
-      </c>
-      <c r="B115" t="s">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>248</v>
       </c>
-      <c r="C115" t="s">
+      <c r="B116" t="s">
+        <v>249</v>
+      </c>
+      <c r="C116" t="s">
+        <v>250</v>
+      </c>
+      <c r="D116" t="s">
         <v>248</v>
       </c>
-      <c r="D115" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>249</v>
-      </c>
-      <c r="B116" t="s">
-        <v>250</v>
-      </c>
-      <c r="C116" t="s">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>251</v>
       </c>
-      <c r="D116" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="B117" t="s">
         <v>252</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
+        <v>252</v>
+      </c>
+      <c r="D117" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>253</v>
       </c>
-      <c r="C117" t="s">
+      <c r="B118" t="s">
+        <v>254</v>
+      </c>
+      <c r="C118" t="s">
+        <v>254</v>
+      </c>
+      <c r="D118" t="s">
         <v>253</v>
       </c>
-      <c r="D117" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>254</v>
-      </c>
-      <c r="B118" t="s">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>255</v>
       </c>
-      <c r="C118" t="s">
+      <c r="B119" t="s">
+        <v>256</v>
+      </c>
+      <c r="C119" t="s">
+        <v>256</v>
+      </c>
+      <c r="D119" t="s">
         <v>255</v>
       </c>
-      <c r="D118" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>256</v>
-      </c>
-      <c r="B119" t="s">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>257</v>
       </c>
-      <c r="C119" t="s">
+      <c r="B120" t="s">
+        <v>258</v>
+      </c>
+      <c r="C120" t="s">
+        <v>258</v>
+      </c>
+      <c r="D120" t="s">
         <v>257</v>
       </c>
-      <c r="D119" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>259</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>260</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>260</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D121" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>261</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>262</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C122" t="s">
         <v>262</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D122" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>263</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>264</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" t="s">
         <v>264</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D123" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>265</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>266</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C124" t="s">
         <v>266</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D124" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>267</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>268</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>268</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D125" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>269</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>270</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>270</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D126" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>271</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>272</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>272</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D127" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>273</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>274</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>274</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D128" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>275</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>276</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C129" t="s">
         <v>276</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D129" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>277</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>278</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
         <v>278</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D130" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>279</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>280</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
         <v>280</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D131" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
         <v>281</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>282</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" t="s">
         <v>282</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D132" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>283</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>284</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>284</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D133" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
         <v>285</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>286</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C134" t="s">
         <v>286</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D134" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
         <v>287</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>288</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
         <v>288</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D135" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
         <v>289</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>290</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" t="s">
         <v>290</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D136" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
         <v>291</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>292</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>292</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D137" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
         <v>293</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>294</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>294</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D138" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
         <v>295</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>296</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C139" t="s">
         <v>296</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D139" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
         <v>297</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>298</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C140" t="s">
         <v>298</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D140" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>299</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>300</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>300</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D141" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>301</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>302</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>302</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D142" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>303</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>304</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C143" t="s">
         <v>304</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D143" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
         <v>305</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>306</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C144" t="s">
         <v>306</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D144" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>307</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>308</v>
       </c>
-      <c r="C144" t="s">
-        <v>308</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="C145" t="s">
+        <v>309</v>
+      </c>
+      <c r="D145" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>309</v>
-      </c>
-      <c r="B145" t="s">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
         <v>310</v>
       </c>
-      <c r="C145" t="s">
+      <c r="B146" t="s">
         <v>311</v>
       </c>
-      <c r="D145" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="C146" t="s">
         <v>312</v>
       </c>
-      <c r="B146" t="s">
+      <c r="D146" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
         <v>313</v>
       </c>
-      <c r="C146" t="s">
+      <c r="B147" t="s">
         <v>314</v>
       </c>
-      <c r="D146" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+      <c r="C147" t="s">
+        <v>314</v>
+      </c>
+      <c r="D147" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
         <v>315</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>316</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C148" t="s">
         <v>316</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D148" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="B149" t="s">
         <v>318</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C149" t="s">
+        <v>318</v>
+      </c>
+      <c r="D149" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
         <v>319</v>
       </c>
-      <c r="C148" t="s">
+      <c r="B150" t="s">
+        <v>320</v>
+      </c>
+      <c r="C150" t="s">
+        <v>321</v>
+      </c>
+      <c r="D150" t="s">
         <v>319</v>
       </c>
-      <c r="D148" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>320</v>
-      </c>
-      <c r="B149" t="s">
-        <v>321</v>
-      </c>
-      <c r="C149" t="s">
-        <v>321</v>
-      </c>
-      <c r="D149" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
         <v>322</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>323</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C151" t="s">
         <v>324</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D151" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
         <v>325</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>326</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C152" t="s">
         <v>327</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D152" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
         <v>328</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>329</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C153" t="s">
+        <v>329</v>
+      </c>
+      <c r="D153" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
         <v>330</v>
       </c>
-      <c r="D152" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="B154" t="s">
         <v>331</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C154" t="s">
+        <v>331</v>
+      </c>
+      <c r="D154" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
         <v>332</v>
       </c>
-      <c r="C153" t="s">
+      <c r="B155" t="s">
+        <v>333</v>
+      </c>
+      <c r="C155" t="s">
+        <v>333</v>
+      </c>
+      <c r="D155" t="s">
         <v>332</v>
       </c>
-      <c r="D153" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>333</v>
-      </c>
-      <c r="B154" t="s">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
         <v>334</v>
       </c>
-      <c r="C154" t="s">
+      <c r="B156" t="s">
+        <v>335</v>
+      </c>
+      <c r="C156" t="s">
+        <v>335</v>
+      </c>
+      <c r="D156" t="s">
         <v>334</v>
       </c>
-      <c r="D154" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>335</v>
-      </c>
-      <c r="B155" t="s">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
         <v>336</v>
       </c>
-      <c r="C155" t="s">
+      <c r="B157" t="s">
+        <v>337</v>
+      </c>
+      <c r="C157" t="s">
+        <v>337</v>
+      </c>
+      <c r="D157" t="s">
         <v>336</v>
       </c>
-      <c r="D155" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>337</v>
-      </c>
-      <c r="B156" t="s">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
         <v>338</v>
       </c>
-      <c r="C156" t="s">
+      <c r="B158" t="s">
+        <v>339</v>
+      </c>
+      <c r="C158" t="s">
+        <v>339</v>
+      </c>
+      <c r="D158" t="s">
         <v>338</v>
       </c>
-      <c r="D156" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>339</v>
-      </c>
-      <c r="B157" t="s">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>340</v>
       </c>
-      <c r="C157" t="s">
+      <c r="B159" t="s">
+        <v>341</v>
+      </c>
+      <c r="C159" t="s">
+        <v>341</v>
+      </c>
+      <c r="D159" t="s">
         <v>340</v>
       </c>
-      <c r="D157" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>341</v>
-      </c>
-      <c r="B158" t="s">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
         <v>342</v>
       </c>
-      <c r="C158" t="s">
+      <c r="B160" t="s">
+        <v>343</v>
+      </c>
+      <c r="C160" t="s">
+        <v>343</v>
+      </c>
+      <c r="D160" t="s">
         <v>342</v>
       </c>
-      <c r="D158" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>343</v>
-      </c>
-      <c r="B159" t="s">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
         <v>344</v>
       </c>
-      <c r="C159" t="s">
+      <c r="B161" t="s">
+        <v>345</v>
+      </c>
+      <c r="C161" t="s">
+        <v>345</v>
+      </c>
+      <c r="D161" t="s">
         <v>344</v>
       </c>
-      <c r="D159" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>345</v>
-      </c>
-      <c r="B160" t="s">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
         <v>346</v>
       </c>
-      <c r="C160" t="s">
+      <c r="B162" t="s">
+        <v>347</v>
+      </c>
+      <c r="C162" t="s">
+        <v>348</v>
+      </c>
+      <c r="D162" t="s">
         <v>346</v>
       </c>
-      <c r="D160" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>347</v>
-      </c>
-      <c r="B161" t="s">
-        <v>348</v>
-      </c>
-      <c r="C161" t="s">
-        <v>348</v>
-      </c>
-      <c r="D161" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
         <v>349</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>350</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
+        <v>350</v>
+      </c>
+      <c r="D163" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
         <v>351</v>
       </c>
-      <c r="D162" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+      <c r="B164" t="s">
         <v>352</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C164" t="s">
+        <v>352</v>
+      </c>
+      <c r="D164" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
         <v>353</v>
       </c>
-      <c r="C163" t="s">
+      <c r="B165" t="s">
+        <v>354</v>
+      </c>
+      <c r="C165" t="s">
+        <v>354</v>
+      </c>
+      <c r="D165" t="s">
         <v>353</v>
       </c>
-      <c r="D163" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>354</v>
-      </c>
-      <c r="B164" t="s">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
         <v>355</v>
       </c>
-      <c r="C164" t="s">
+      <c r="B166" t="s">
+        <v>356</v>
+      </c>
+      <c r="C166" t="s">
+        <v>356</v>
+      </c>
+      <c r="D166" t="s">
         <v>355</v>
       </c>
-      <c r="D164" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>356</v>
-      </c>
-      <c r="B165" t="s">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
         <v>357</v>
       </c>
-      <c r="C165" t="s">
+      <c r="B167" t="s">
+        <v>358</v>
+      </c>
+      <c r="C167" t="s">
+        <v>358</v>
+      </c>
+      <c r="D167" t="s">
         <v>357</v>
       </c>
-      <c r="D165" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>358</v>
-      </c>
-      <c r="B166" t="s">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
         <v>359</v>
       </c>
-      <c r="C166" t="s">
+      <c r="B168" t="s">
+        <v>360</v>
+      </c>
+      <c r="C168" t="s">
+        <v>360</v>
+      </c>
+      <c r="D168" t="s">
         <v>359</v>
       </c>
-      <c r="D166" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>360</v>
-      </c>
-      <c r="B167" t="s">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>361</v>
       </c>
-      <c r="C167" t="s">
+      <c r="B169" t="s">
+        <v>362</v>
+      </c>
+      <c r="C169" t="s">
+        <v>362</v>
+      </c>
+      <c r="D169" t="s">
         <v>361</v>
       </c>
-      <c r="D167" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>362</v>
-      </c>
-      <c r="B168" t="s">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>363</v>
       </c>
-      <c r="C168" t="s">
+      <c r="B170" t="s">
+        <v>364</v>
+      </c>
+      <c r="C170" t="s">
+        <v>364</v>
+      </c>
+      <c r="D170" t="s">
         <v>363</v>
       </c>
-      <c r="D168" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>364</v>
-      </c>
-      <c r="B169" t="s">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
         <v>365</v>
       </c>
-      <c r="C169" t="s">
+      <c r="B171" t="s">
+        <v>366</v>
+      </c>
+      <c r="C171" t="s">
+        <v>366</v>
+      </c>
+      <c r="D171" t="s">
         <v>365</v>
       </c>
-      <c r="D169" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>366</v>
-      </c>
-      <c r="B170" t="s">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
         <v>367</v>
       </c>
-      <c r="C170" t="s">
+      <c r="B172" t="s">
+        <v>368</v>
+      </c>
+      <c r="C172" t="s">
+        <v>368</v>
+      </c>
+      <c r="D172" t="s">
         <v>367</v>
       </c>
-      <c r="D170" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>368</v>
-      </c>
-      <c r="B171" t="s">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
         <v>369</v>
       </c>
-      <c r="C171" t="s">
+      <c r="B173" t="s">
+        <v>370</v>
+      </c>
+      <c r="C173" t="s">
+        <v>370</v>
+      </c>
+      <c r="D173" t="s">
         <v>369</v>
       </c>
-      <c r="D171" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>370</v>
-      </c>
-      <c r="B172" t="s">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
         <v>371</v>
       </c>
-      <c r="C172" t="s">
+      <c r="B174" t="s">
+        <v>372</v>
+      </c>
+      <c r="C174" t="s">
+        <v>372</v>
+      </c>
+      <c r="D174" t="s">
         <v>371</v>
       </c>
-      <c r="D172" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>372</v>
-      </c>
-      <c r="B173" t="s">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
         <v>373</v>
       </c>
-      <c r="C173" t="s">
+      <c r="B175" t="s">
+        <v>374</v>
+      </c>
+      <c r="C175" t="s">
+        <v>374</v>
+      </c>
+      <c r="D175" t="s">
         <v>373</v>
       </c>
-      <c r="D173" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>374</v>
-      </c>
-      <c r="B174" t="s">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
         <v>375</v>
       </c>
-      <c r="C174" t="s">
+      <c r="B176" t="s">
+        <v>376</v>
+      </c>
+      <c r="C176" t="s">
+        <v>376</v>
+      </c>
+      <c r="D176" t="s">
         <v>375</v>
       </c>
-      <c r="D174" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>376</v>
-      </c>
-      <c r="B175" t="s">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
         <v>377</v>
       </c>
-      <c r="C175" t="s">
+      <c r="B177" t="s">
+        <v>378</v>
+      </c>
+      <c r="C177" t="s">
+        <v>378</v>
+      </c>
+      <c r="D177" t="s">
         <v>377</v>
       </c>
-      <c r="D175" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>378</v>
-      </c>
-      <c r="B176" t="s">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
         <v>379</v>
       </c>
-      <c r="C176" t="s">
+      <c r="B178" t="s">
+        <v>380</v>
+      </c>
+      <c r="C178" t="s">
+        <v>380</v>
+      </c>
+      <c r="D178" t="s">
         <v>379</v>
       </c>
-      <c r="D176" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>380</v>
-      </c>
-      <c r="B177" t="s">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
         <v>381</v>
       </c>
-      <c r="C177" t="s">
+      <c r="B179" t="s">
+        <v>382</v>
+      </c>
+      <c r="C179" t="s">
+        <v>383</v>
+      </c>
+      <c r="D179" t="s">
         <v>381</v>
       </c>
-      <c r="D177" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>382</v>
-      </c>
-      <c r="B178" t="s">
-        <v>383</v>
-      </c>
-      <c r="C178" t="s">
-        <v>383</v>
-      </c>
-      <c r="D178" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
         <v>384</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" t="s">
         <v>385</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C180" t="s">
+        <v>385</v>
+      </c>
+      <c r="D180" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
         <v>386</v>
       </c>
-      <c r="D179" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+      <c r="B181" t="s">
         <v>387</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C181" t="s">
+        <v>387</v>
+      </c>
+      <c r="D181" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
         <v>388</v>
       </c>
-      <c r="C180" t="s">
+      <c r="B182" t="s">
+        <v>389</v>
+      </c>
+      <c r="C182" t="s">
+        <v>389</v>
+      </c>
+      <c r="D182" t="s">
         <v>388</v>
       </c>
-      <c r="D180" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>389</v>
-      </c>
-      <c r="B181" t="s">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
         <v>390</v>
       </c>
-      <c r="C181" t="s">
+      <c r="B183" t="s">
+        <v>391</v>
+      </c>
+      <c r="C183" t="s">
+        <v>391</v>
+      </c>
+      <c r="D183" t="s">
         <v>390</v>
       </c>
-      <c r="D181" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>391</v>
-      </c>
-      <c r="B182" t="s">
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
         <v>392</v>
       </c>
-      <c r="C182" t="s">
+      <c r="B184" t="s">
+        <v>393</v>
+      </c>
+      <c r="C184" t="s">
+        <v>393</v>
+      </c>
+      <c r="D184" t="s">
         <v>392</v>
       </c>
-      <c r="D182" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>393</v>
-      </c>
-      <c r="B183" t="s">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
         <v>394</v>
       </c>
-      <c r="C183" t="s">
+      <c r="B185" t="s">
+        <v>395</v>
+      </c>
+      <c r="C185" t="s">
+        <v>395</v>
+      </c>
+      <c r="D185" t="s">
         <v>394</v>
       </c>
-      <c r="D183" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>395</v>
-      </c>
-      <c r="B184" t="s">
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
         <v>396</v>
       </c>
-      <c r="C184" t="s">
+      <c r="B186" t="s">
+        <v>397</v>
+      </c>
+      <c r="C186" t="s">
+        <v>397</v>
+      </c>
+      <c r="D186" t="s">
         <v>396</v>
       </c>
-      <c r="D184" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>397</v>
-      </c>
-      <c r="B185" t="s">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
         <v>398</v>
       </c>
-      <c r="C185" t="s">
+      <c r="B187" t="s">
+        <v>399</v>
+      </c>
+      <c r="C187" t="s">
+        <v>399</v>
+      </c>
+      <c r="D187" t="s">
         <v>398</v>
       </c>
-      <c r="D185" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>399</v>
-      </c>
-      <c r="B186" t="s">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
         <v>400</v>
       </c>
-      <c r="C186" t="s">
+      <c r="B188" t="s">
+        <v>401</v>
+      </c>
+      <c r="C188" t="s">
+        <v>402</v>
+      </c>
+      <c r="D188" t="s">
         <v>400</v>
       </c>
-      <c r="D186" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>401</v>
-      </c>
-      <c r="B187" t="s">
-        <v>402</v>
-      </c>
-      <c r="C187" t="s">
-        <v>402</v>
-      </c>
-      <c r="D187" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
         <v>403</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>404</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C189" t="s">
+        <v>404</v>
+      </c>
+      <c r="D189" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
         <v>405</v>
       </c>
-      <c r="D188" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+      <c r="B190" t="s">
         <v>406</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C190" t="s">
+        <v>406</v>
+      </c>
+      <c r="D190" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
         <v>407</v>
       </c>
-      <c r="C189" t="s">
+      <c r="B191" t="s">
+        <v>408</v>
+      </c>
+      <c r="C191" t="s">
+        <v>408</v>
+      </c>
+      <c r="D191" t="s">
         <v>407</v>
       </c>
-      <c r="D189" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>408</v>
-      </c>
-      <c r="B190" t="s">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
         <v>409</v>
       </c>
-      <c r="C190" t="s">
+      <c r="B192" t="s">
+        <v>410</v>
+      </c>
+      <c r="C192" t="s">
+        <v>410</v>
+      </c>
+      <c r="D192" t="s">
         <v>409</v>
       </c>
-      <c r="D190" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>410</v>
-      </c>
-      <c r="B191" t="s">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
         <v>411</v>
       </c>
-      <c r="C191" t="s">
+      <c r="B193" t="s">
+        <v>412</v>
+      </c>
+      <c r="C193" t="s">
+        <v>412</v>
+      </c>
+      <c r="D193" t="s">
         <v>411</v>
       </c>
-      <c r="D191" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>412</v>
-      </c>
-      <c r="B192" t="s">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
         <v>413</v>
       </c>
-      <c r="C192" t="s">
+      <c r="B194" t="s">
+        <v>414</v>
+      </c>
+      <c r="C194" t="s">
+        <v>415</v>
+      </c>
+      <c r="D194" t="s">
         <v>413</v>
       </c>
-      <c r="D192" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>414</v>
-      </c>
-      <c r="B193" t="s">
-        <v>415</v>
-      </c>
-      <c r="C193" t="s">
-        <v>415</v>
-      </c>
-      <c r="D193" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>416</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>417</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C195" t="s">
+        <v>417</v>
+      </c>
+      <c r="D195" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>418</v>
       </c>
-      <c r="D194" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+      <c r="B196" t="s">
         <v>419</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C196" t="s">
+        <v>419</v>
+      </c>
+      <c r="D196" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>420</v>
       </c>
-      <c r="C195" t="s">
+      <c r="B197" t="s">
+        <v>421</v>
+      </c>
+      <c r="C197" t="s">
+        <v>421</v>
+      </c>
+      <c r="D197" t="s">
         <v>420</v>
       </c>
-      <c r="D195" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>421</v>
-      </c>
-      <c r="B196" t="s">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
         <v>422</v>
       </c>
-      <c r="C196" t="s">
+      <c r="B198" t="s">
+        <v>423</v>
+      </c>
+      <c r="C198" t="s">
+        <v>423</v>
+      </c>
+      <c r="D198" t="s">
         <v>422</v>
       </c>
-      <c r="D196" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>423</v>
-      </c>
-      <c r="B197" t="s">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>424</v>
       </c>
-      <c r="C197" t="s">
+      <c r="B199" t="s">
+        <v>425</v>
+      </c>
+      <c r="C199" t="s">
+        <v>426</v>
+      </c>
+      <c r="D199" t="s">
         <v>424</v>
       </c>
-      <c r="D197" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>425</v>
-      </c>
-      <c r="B198" t="s">
-        <v>426</v>
-      </c>
-      <c r="C198" t="s">
-        <v>426</v>
-      </c>
-      <c r="D198" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
         <v>427</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B200" t="s">
         <v>428</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C200" t="s">
         <v>429</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D200" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
         <v>430</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>431</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C201" t="s">
         <v>432</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D201" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
         <v>433</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B202" t="s">
         <v>434</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C202" t="s">
+        <v>434</v>
+      </c>
+      <c r="D202" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
         <v>435</v>
       </c>
-      <c r="D201" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+      <c r="B203" t="s">
         <v>436</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C203" t="s">
+        <v>436</v>
+      </c>
+      <c r="D203" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B204" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C202" t="s">
-        <v>437</v>
-      </c>
-      <c r="D202" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+      <c r="C204" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="B203" t="s">
-        <v>439</v>
-      </c>
-      <c r="C203" t="s">
-        <v>439</v>
-      </c>
-      <c r="D203" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_Raw/Country codes & metadata/wbcodes_equiv_unicef.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/wbcodes_equiv_unicef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15691C8-5F65-4235-BFEE-8E6FFA2684EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC875A96-3704-4167-BA38-AAF67288AE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{4113CD76-B60E-46BE-A214-6074E1BAFEC6}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{4113CD76-B60E-46BE-A214-6074E1BAFEC6}"/>
   </bookViews>
   <sheets>
     <sheet name="unicef" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="443">
   <si>
     <t>unicef_code</t>
   </si>
@@ -380,6 +380,9 @@
     <t>Congo, Dem. Rep.</t>
   </si>
   <si>
+    <t>ZAR</t>
+  </si>
+  <si>
     <t>DNK</t>
   </si>
   <si>
@@ -809,6 +812,9 @@
     <t>Montenegro</t>
   </si>
   <si>
+    <t>MNT</t>
+  </si>
+  <si>
     <t>MSR</t>
   </si>
   <si>
@@ -981,6 +987,9 @@
   </si>
   <si>
     <t>Romania</t>
+  </si>
+  <si>
+    <t>ROM</t>
   </si>
   <si>
     <t>RUS</t>
@@ -1747,13 +1756,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E591674A-0250-4337-8608-CACAB3DE8C37}">
   <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="G164" sqref="G164"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="F200" sqref="F200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1767,7 +1776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1781,7 +1790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1795,7 +1804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1809,7 +1818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1823,7 +1832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1837,7 +1846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1851,7 +1860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1865,7 +1874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1879,7 +1888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1893,7 +1902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1907,7 +1916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1921,7 +1930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1935,7 +1944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1949,7 +1958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1963,7 +1972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1977,7 +1986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1991,7 +2000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2005,7 +2014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2019,7 +2028,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2033,7 +2042,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2047,7 +2056,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2061,7 +2070,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2075,7 +2084,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2089,7 +2098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -2103,7 +2112,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2117,7 +2126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -2131,7 +2140,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -2145,7 +2154,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2159,7 +2168,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2173,7 +2182,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -2187,7 +2196,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -2201,7 +2210,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -2215,7 +2224,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -2229,7 +2238,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -2243,7 +2252,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -2257,7 +2266,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -2271,7 +2280,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -2285,7 +2294,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -2299,7 +2308,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -2313,7 +2322,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -2327,7 +2336,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -2341,7 +2350,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -2355,7 +2364,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -2369,7 +2378,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -2383,7 +2392,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -2397,7 +2406,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -2411,7 +2420,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -2425,7 +2434,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -2439,7 +2448,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -2453,7 +2462,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -2464,2149 +2473,2149 @@
         <v>113</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" t="s">
         <v>115</v>
       </c>
-      <c r="C52" t="s">
-        <v>115</v>
-      </c>
-      <c r="D52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" t="s">
         <v>117</v>
       </c>
-      <c r="C53" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" t="s">
         <v>119</v>
       </c>
-      <c r="C54" t="s">
-        <v>119</v>
-      </c>
-      <c r="D54" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" t="s">
         <v>121</v>
       </c>
-      <c r="C55" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" t="s">
         <v>123</v>
       </c>
-      <c r="C56" t="s">
-        <v>123</v>
-      </c>
-      <c r="D56" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" t="s">
         <v>125</v>
       </c>
-      <c r="C57" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" t="s">
         <v>128</v>
       </c>
-      <c r="C58" t="s">
-        <v>128</v>
-      </c>
-      <c r="D58" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" t="s">
         <v>130</v>
       </c>
-      <c r="C59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" t="s">
         <v>132</v>
       </c>
-      <c r="C60" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" t="s">
         <v>134</v>
       </c>
-      <c r="C61" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" t="s">
         <v>136</v>
       </c>
-      <c r="C62" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B63" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" t="s">
         <v>139</v>
       </c>
-      <c r="C63" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" t="s">
         <v>141</v>
       </c>
-      <c r="C64" t="s">
-        <v>141</v>
-      </c>
-      <c r="D64" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" t="s">
         <v>143</v>
       </c>
-      <c r="C65" t="s">
-        <v>143</v>
-      </c>
-      <c r="D65" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" t="s">
         <v>145</v>
       </c>
-      <c r="C66" t="s">
-        <v>145</v>
-      </c>
-      <c r="D66" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C67" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" t="s">
         <v>147</v>
       </c>
-      <c r="C67" t="s">
-        <v>148</v>
-      </c>
-      <c r="D67" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" t="s">
         <v>150</v>
       </c>
-      <c r="C68" t="s">
-        <v>150</v>
-      </c>
-      <c r="D68" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B69" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" t="s">
         <v>152</v>
       </c>
-      <c r="C69" t="s">
-        <v>152</v>
-      </c>
-      <c r="D69" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B70" t="s">
+        <v>155</v>
+      </c>
+      <c r="C70" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" t="s">
         <v>154</v>
       </c>
-      <c r="C70" t="s">
-        <v>154</v>
-      </c>
-      <c r="D70" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" t="s">
         <v>156</v>
       </c>
-      <c r="C71" t="s">
-        <v>156</v>
-      </c>
-      <c r="D71" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B72" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" t="s">
         <v>158</v>
       </c>
-      <c r="C72" t="s">
-        <v>158</v>
-      </c>
-      <c r="D72" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B73" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" t="s">
         <v>160</v>
       </c>
-      <c r="C73" t="s">
-        <v>160</v>
-      </c>
-      <c r="D73" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B74" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74" t="s">
         <v>162</v>
       </c>
-      <c r="C74" t="s">
-        <v>162</v>
-      </c>
-      <c r="D74" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" t="s">
         <v>164</v>
       </c>
-      <c r="C75" t="s">
-        <v>164</v>
-      </c>
-      <c r="D75" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B76" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" t="s">
         <v>166</v>
       </c>
-      <c r="C76" t="s">
-        <v>166</v>
-      </c>
-      <c r="D76" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B77" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" t="s">
         <v>168</v>
       </c>
-      <c r="C77" t="s">
-        <v>168</v>
-      </c>
-      <c r="D77" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B78" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" t="s">
         <v>170</v>
       </c>
-      <c r="C78" t="s">
-        <v>170</v>
-      </c>
-      <c r="D78" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B79" t="s">
+        <v>173</v>
+      </c>
+      <c r="C79" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" t="s">
         <v>172</v>
       </c>
-      <c r="C79" t="s">
-        <v>172</v>
-      </c>
-      <c r="D79" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B80" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" t="s">
+        <v>175</v>
+      </c>
+      <c r="D80" t="s">
         <v>174</v>
       </c>
-      <c r="C80" t="s">
-        <v>174</v>
-      </c>
-      <c r="D80" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B81" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" t="s">
+        <v>177</v>
+      </c>
+      <c r="D81" t="s">
         <v>176</v>
       </c>
-      <c r="C81" t="s">
-        <v>176</v>
-      </c>
-      <c r="D81" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B82" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" t="s">
+        <v>179</v>
+      </c>
+      <c r="D82" t="s">
         <v>178</v>
       </c>
-      <c r="C82" t="s">
-        <v>178</v>
-      </c>
-      <c r="D82" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B83" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83" t="s">
         <v>180</v>
       </c>
-      <c r="C83" t="s">
-        <v>180</v>
-      </c>
-      <c r="D83" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B84" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" t="s">
+        <v>184</v>
+      </c>
+      <c r="D84" t="s">
         <v>182</v>
       </c>
-      <c r="C84" t="s">
-        <v>183</v>
-      </c>
-      <c r="D84" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B85" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" t="s">
+        <v>186</v>
+      </c>
+      <c r="D85" t="s">
         <v>185</v>
       </c>
-      <c r="C85" t="s">
-        <v>185</v>
-      </c>
-      <c r="D85" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B86" t="s">
+        <v>188</v>
+      </c>
+      <c r="C86" t="s">
+        <v>188</v>
+      </c>
+      <c r="D86" t="s">
         <v>187</v>
       </c>
-      <c r="C86" t="s">
-        <v>187</v>
-      </c>
-      <c r="D86" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B87" t="s">
+        <v>190</v>
+      </c>
+      <c r="C87" t="s">
+        <v>190</v>
+      </c>
+      <c r="D87" t="s">
         <v>189</v>
       </c>
-      <c r="C87" t="s">
-        <v>189</v>
-      </c>
-      <c r="D87" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B88" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" t="s">
+        <v>192</v>
+      </c>
+      <c r="D88" t="s">
         <v>191</v>
       </c>
-      <c r="C88" t="s">
-        <v>191</v>
-      </c>
-      <c r="D88" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B89" t="s">
+        <v>194</v>
+      </c>
+      <c r="C89" t="s">
+        <v>194</v>
+      </c>
+      <c r="D89" t="s">
         <v>193</v>
       </c>
-      <c r="C89" t="s">
-        <v>193</v>
-      </c>
-      <c r="D89" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B90" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" t="s">
+        <v>196</v>
+      </c>
+      <c r="D90" t="s">
         <v>195</v>
       </c>
-      <c r="C90" t="s">
-        <v>195</v>
-      </c>
-      <c r="D90" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B91" t="s">
+        <v>198</v>
+      </c>
+      <c r="C91" t="s">
+        <v>198</v>
+      </c>
+      <c r="D91" t="s">
         <v>197</v>
       </c>
-      <c r="C91" t="s">
-        <v>197</v>
-      </c>
-      <c r="D91" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B92" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" t="s">
         <v>199</v>
       </c>
-      <c r="C92" t="s">
-        <v>199</v>
-      </c>
-      <c r="D92" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B93" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" t="s">
+        <v>202</v>
+      </c>
+      <c r="D93" t="s">
         <v>201</v>
       </c>
-      <c r="C93" t="s">
-        <v>201</v>
-      </c>
-      <c r="D93" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B94" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" t="s">
+        <v>204</v>
+      </c>
+      <c r="D94" t="s">
         <v>203</v>
       </c>
-      <c r="C94" t="s">
-        <v>203</v>
-      </c>
-      <c r="D94" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B95" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" t="s">
+        <v>206</v>
+      </c>
+      <c r="D95" t="s">
         <v>205</v>
       </c>
-      <c r="C95" t="s">
-        <v>205</v>
-      </c>
-      <c r="D95" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B96" t="s">
+        <v>208</v>
+      </c>
+      <c r="C96" t="s">
+        <v>209</v>
+      </c>
+      <c r="D96" t="s">
         <v>207</v>
       </c>
-      <c r="C96" t="s">
-        <v>208</v>
-      </c>
-      <c r="D96" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B97" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" t="s">
+        <v>212</v>
+      </c>
+      <c r="D97" t="s">
         <v>210</v>
       </c>
-      <c r="C97" t="s">
-        <v>211</v>
-      </c>
-      <c r="D97" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B98" t="s">
+        <v>214</v>
+      </c>
+      <c r="C98" t="s">
+        <v>214</v>
+      </c>
+      <c r="D98" t="s">
         <v>213</v>
       </c>
-      <c r="C98" t="s">
-        <v>213</v>
-      </c>
-      <c r="D98" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B99" t="s">
+        <v>216</v>
+      </c>
+      <c r="C99" t="s">
+        <v>216</v>
+      </c>
+      <c r="D99" t="s">
         <v>215</v>
       </c>
-      <c r="C99" t="s">
-        <v>215</v>
-      </c>
-      <c r="D99" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B100" t="s">
+        <v>218</v>
+      </c>
+      <c r="C100" t="s">
+        <v>218</v>
+      </c>
+      <c r="D100" t="s">
         <v>217</v>
       </c>
-      <c r="C100" t="s">
-        <v>217</v>
-      </c>
-      <c r="D100" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B101" t="s">
+        <v>220</v>
+      </c>
+      <c r="C101" t="s">
+        <v>220</v>
+      </c>
+      <c r="D101" t="s">
         <v>219</v>
       </c>
-      <c r="C101" t="s">
-        <v>219</v>
-      </c>
-      <c r="D101" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B102" t="s">
+        <v>222</v>
+      </c>
+      <c r="C102" t="s">
+        <v>222</v>
+      </c>
+      <c r="D102" t="s">
         <v>221</v>
       </c>
-      <c r="C102" t="s">
-        <v>221</v>
-      </c>
-      <c r="D102" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B103" t="s">
+        <v>224</v>
+      </c>
+      <c r="C103" t="s">
+        <v>224</v>
+      </c>
+      <c r="D103" t="s">
         <v>223</v>
       </c>
-      <c r="C103" t="s">
-        <v>223</v>
-      </c>
-      <c r="D103" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B104" t="s">
+        <v>226</v>
+      </c>
+      <c r="C104" t="s">
+        <v>226</v>
+      </c>
+      <c r="D104" t="s">
         <v>225</v>
       </c>
-      <c r="C104" t="s">
-        <v>225</v>
-      </c>
-      <c r="D104" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B105" t="s">
+        <v>228</v>
+      </c>
+      <c r="C105" t="s">
+        <v>228</v>
+      </c>
+      <c r="D105" t="s">
         <v>227</v>
       </c>
-      <c r="C105" t="s">
-        <v>227</v>
-      </c>
-      <c r="D105" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B106" t="s">
+        <v>230</v>
+      </c>
+      <c r="C106" t="s">
+        <v>230</v>
+      </c>
+      <c r="D106" t="s">
         <v>229</v>
       </c>
-      <c r="C106" t="s">
-        <v>229</v>
-      </c>
-      <c r="D106" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B107" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" t="s">
+        <v>232</v>
+      </c>
+      <c r="D107" t="s">
         <v>231</v>
       </c>
-      <c r="C107" t="s">
-        <v>231</v>
-      </c>
-      <c r="D107" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B108" t="s">
+        <v>234</v>
+      </c>
+      <c r="C108" t="s">
+        <v>234</v>
+      </c>
+      <c r="D108" t="s">
         <v>233</v>
       </c>
-      <c r="C108" t="s">
-        <v>233</v>
-      </c>
-      <c r="D108" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B109" t="s">
+        <v>236</v>
+      </c>
+      <c r="C109" t="s">
+        <v>236</v>
+      </c>
+      <c r="D109" t="s">
         <v>235</v>
       </c>
-      <c r="C109" t="s">
-        <v>235</v>
-      </c>
-      <c r="D109" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B110" t="s">
+        <v>238</v>
+      </c>
+      <c r="C110" t="s">
+        <v>238</v>
+      </c>
+      <c r="D110" t="s">
         <v>237</v>
       </c>
-      <c r="C110" t="s">
-        <v>237</v>
-      </c>
-      <c r="D110" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B111" t="s">
+        <v>240</v>
+      </c>
+      <c r="C111" t="s">
+        <v>240</v>
+      </c>
+      <c r="D111" t="s">
         <v>239</v>
       </c>
-      <c r="C111" t="s">
-        <v>239</v>
-      </c>
-      <c r="D111" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B112" t="s">
+        <v>242</v>
+      </c>
+      <c r="C112" t="s">
+        <v>242</v>
+      </c>
+      <c r="D112" t="s">
         <v>241</v>
       </c>
-      <c r="C112" t="s">
-        <v>241</v>
-      </c>
-      <c r="D112" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B113" t="s">
+        <v>244</v>
+      </c>
+      <c r="C113" t="s">
+        <v>244</v>
+      </c>
+      <c r="D113" t="s">
         <v>243</v>
       </c>
-      <c r="C113" t="s">
-        <v>243</v>
-      </c>
-      <c r="D113" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B114" t="s">
+        <v>246</v>
+      </c>
+      <c r="C114" t="s">
+        <v>246</v>
+      </c>
+      <c r="D114" t="s">
         <v>245</v>
       </c>
-      <c r="C114" t="s">
-        <v>245</v>
-      </c>
-      <c r="D114" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B115" t="s">
+        <v>248</v>
+      </c>
+      <c r="C115" t="s">
+        <v>248</v>
+      </c>
+      <c r="D115" t="s">
         <v>247</v>
       </c>
-      <c r="C115" t="s">
-        <v>247</v>
-      </c>
-      <c r="D115" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B116" t="s">
+        <v>250</v>
+      </c>
+      <c r="C116" t="s">
+        <v>251</v>
+      </c>
+      <c r="D116" t="s">
         <v>249</v>
       </c>
-      <c r="C116" t="s">
-        <v>250</v>
-      </c>
-      <c r="D116" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B117" t="s">
+        <v>253</v>
+      </c>
+      <c r="C117" t="s">
+        <v>253</v>
+      </c>
+      <c r="D117" t="s">
         <v>252</v>
       </c>
-      <c r="C117" t="s">
-        <v>252</v>
-      </c>
-      <c r="D117" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B118" t="s">
+        <v>255</v>
+      </c>
+      <c r="C118" t="s">
+        <v>255</v>
+      </c>
+      <c r="D118" t="s">
         <v>254</v>
       </c>
-      <c r="C118" t="s">
-        <v>254</v>
-      </c>
-      <c r="D118" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B119" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C119" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D119" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B120" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C120" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D120" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B121" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C121" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D121" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B122" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C122" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D122" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B123" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C123" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D123" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B124" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C124" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D124" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B125" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C125" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D125" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B126" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C126" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D126" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B127" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C127" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D127" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B128" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C128" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D128" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B129" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C129" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D129" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B130" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C130" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D130" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B131" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C131" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D131" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B132" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C132" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D132" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B133" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C133" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D133" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B134" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C134" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D134" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B135" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C135" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D135" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B136" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C136" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D136" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B137" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C137" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D137" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B138" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C138" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D138" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B139" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C139" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D139" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B140" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C140" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D140" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B141" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C141" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D141" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B142" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C142" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D142" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B143" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C143" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D143" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B144" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C144" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D144" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B145" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C145" t="s">
+        <v>311</v>
+      </c>
+      <c r="D145" t="s">
         <v>309</v>
       </c>
-      <c r="D145" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B146" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C146" t="s">
+        <v>314</v>
+      </c>
+      <c r="D146" t="s">
         <v>312</v>
       </c>
-      <c r="D146" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B147" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C147" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D147" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B148" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C148" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D148" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B149" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C149" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D149" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B150" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C150" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D150" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B151" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C151" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D151" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B152" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C152" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D152" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B153" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C153" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D153" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B154" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C154" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D154" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B155" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C155" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D155" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B156" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C156" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D156" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B157" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C157" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D157" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B158" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C158" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D158" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B159" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C159" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D159" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B160" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C160" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D160" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B161" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C161" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D161" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B162" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C162" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D162" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B163" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C163" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D163" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B164" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C164" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="D164" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B165" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C165" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D165" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B166" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C166" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D166" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B167" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C167" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D167" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B168" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C168" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D168" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B169" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C169" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D169" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B170" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C170" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D170" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B171" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C171" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="D171" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B172" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C172" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D172" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B173" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C173" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D173" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B174" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C174" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D174" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B175" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C175" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D175" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B176" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C176" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D176" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B177" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C177" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D177" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B178" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C178" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D178" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B179" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C179" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D179" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B180" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C180" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D180" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B181" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C181" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D181" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B182" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C182" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D182" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B183" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C183" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D183" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B184" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C184" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D184" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B185" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C185" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D185" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B186" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C186" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D186" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B187" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C187" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D187" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B188" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C188" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D188" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B189" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C189" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D189" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B190" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C190" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D190" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B191" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C191" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D191" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B192" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C192" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D192" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B193" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C193" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D193" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B194" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C194" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D194" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B195" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C195" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D195" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B196" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C196" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D196" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B197" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C197" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D197" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B198" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C198" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D198" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B199" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C199" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D199" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B200" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C200" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D200" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B201" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C201" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D201" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B202" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C202" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D202" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B203" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C203" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D203" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_Raw/Country codes & metadata/wbcodes_equiv_unicef.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/wbcodes_equiv_unicef.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\llohi\Documents\WB\Data Portal\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{387BC7E2-38E7-4B11-8A32-2A1822E8744D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{387BC7E2-38E7-4B11-8A32-2A1822E8744D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4157722B-650F-4CD5-AC32-99A27CD588DE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4113CD76-B60E-46BE-A214-6074E1BAFEC6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="444">
   <si>
     <t>unicef_code</t>
   </si>
@@ -1356,13 +1356,25 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>RKS</t>
+  </si>
+  <si>
+    <t>Kosovo (UNSCR 1244)</t>
+  </si>
+  <si>
+    <t>XKX</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1370,16 +1382,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1387,15 +1412,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{DAE8339E-E881-4A6E-9FD3-60A5A5FB6B42}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1410,8 +1460,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1707,13 +1761,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E591674A-0250-4337-8608-CACAB3DE8C37}">
-  <dimension ref="A1:D203"/>
+  <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4557,6 +4611,20 @@
         <v>438</v>
       </c>
     </row>
+    <row r="204" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Data_Raw/Country codes & metadata/wbcodes_equiv_unicef.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/wbcodes_equiv_unicef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC875A96-3704-4167-BA38-AAF67288AE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A0525C-7C2D-4A8C-9264-1902A87069FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{4113CD76-B60E-46BE-A214-6074E1BAFEC6}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{4113CD76-B60E-46BE-A214-6074E1BAFEC6}"/>
   </bookViews>
   <sheets>
     <sheet name="unicef" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="488">
   <si>
     <t>unicef_code</t>
   </si>
@@ -380,9 +380,6 @@
     <t>Congo, Dem. Rep.</t>
   </si>
   <si>
-    <t>ZAR</t>
-  </si>
-  <si>
     <t>DNK</t>
   </si>
   <si>
@@ -812,9 +809,6 @@
     <t>Montenegro</t>
   </si>
   <si>
-    <t>MNT</t>
-  </si>
-  <si>
     <t>MSR</t>
   </si>
   <si>
@@ -989,9 +983,6 @@
     <t>Romania</t>
   </si>
   <si>
-    <t>ROM</t>
-  </si>
-  <si>
     <t>RUS</t>
   </si>
   <si>
@@ -1365,6 +1356,150 @@
   </si>
   <si>
     <t>Kosovo</t>
+  </si>
+  <si>
+    <t>VIR</t>
+  </si>
+  <si>
+    <t>SXM</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>SHN</t>
+  </si>
+  <si>
+    <t>PYF</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>NCL</t>
+  </si>
+  <si>
+    <t>MYT</t>
+  </si>
+  <si>
+    <t>MTQ</t>
+  </si>
+  <si>
+    <t>MNP</t>
+  </si>
+  <si>
+    <t>MAF</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>GUM</t>
+  </si>
+  <si>
+    <t>GRL</t>
+  </si>
+  <si>
+    <t>GLP</t>
+  </si>
+  <si>
+    <t>GIB</t>
+  </si>
+  <si>
+    <t>FRO</t>
+  </si>
+  <si>
+    <t>FLK</t>
+  </si>
+  <si>
+    <t>CYM</t>
+  </si>
+  <si>
+    <t>CUW</t>
+  </si>
+  <si>
+    <t>BMU</t>
+  </si>
+  <si>
+    <t>BLM</t>
+  </si>
+  <si>
+    <t>ABW</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Saint Barthélemy</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Falkland Island</t>
+  </si>
+  <si>
+    <t>Faeroe Islands</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Hong Kong, China</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>St. Martin (French part)</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Virgin Islands (U.S.)</t>
   </si>
 </sst>
 </file>
@@ -1754,10 +1889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E591674A-0250-4337-8608-CACAB3DE8C37}">
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="F200" sqref="F200"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2473,2149 +2608,2485 @@
         <v>113</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s">
         <v>115</v>
       </c>
-      <c r="B52" t="s">
-        <v>116</v>
-      </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" t="s">
         <v>117</v>
       </c>
-      <c r="B53" t="s">
-        <v>118</v>
-      </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" t="s">
         <v>119</v>
       </c>
-      <c r="B54" t="s">
-        <v>120</v>
-      </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" t="s">
         <v>121</v>
       </c>
-      <c r="B55" t="s">
-        <v>122</v>
-      </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" t="s">
         <v>123</v>
       </c>
-      <c r="B56" t="s">
-        <v>124</v>
-      </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" t="s">
         <v>125</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>126</v>
       </c>
-      <c r="C57" t="s">
-        <v>127</v>
-      </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" t="s">
         <v>128</v>
       </c>
-      <c r="B58" t="s">
-        <v>129</v>
-      </c>
       <c r="C58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" t="s">
         <v>130</v>
       </c>
-      <c r="B59" t="s">
-        <v>131</v>
-      </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" t="s">
         <v>132</v>
       </c>
-      <c r="B60" t="s">
-        <v>133</v>
-      </c>
       <c r="C60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" t="s">
         <v>134</v>
       </c>
-      <c r="B61" t="s">
-        <v>135</v>
-      </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" t="s">
         <v>136</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>137</v>
       </c>
-      <c r="C62" t="s">
-        <v>138</v>
-      </c>
       <c r="D62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" t="s">
         <v>139</v>
       </c>
-      <c r="B63" t="s">
-        <v>140</v>
-      </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" t="s">
         <v>141</v>
       </c>
-      <c r="B64" t="s">
-        <v>142</v>
-      </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" t="s">
         <v>143</v>
       </c>
-      <c r="B65" t="s">
-        <v>144</v>
-      </c>
       <c r="C65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" t="s">
         <v>145</v>
       </c>
-      <c r="B66" t="s">
-        <v>146</v>
-      </c>
       <c r="C66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" t="s">
         <v>147</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>148</v>
       </c>
-      <c r="C67" t="s">
-        <v>149</v>
-      </c>
       <c r="D67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" t="s">
         <v>150</v>
       </c>
-      <c r="B68" t="s">
-        <v>151</v>
-      </c>
       <c r="C68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" t="s">
         <v>152</v>
       </c>
-      <c r="B69" t="s">
-        <v>153</v>
-      </c>
       <c r="C69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" t="s">
         <v>154</v>
       </c>
-      <c r="B70" t="s">
-        <v>155</v>
-      </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" t="s">
         <v>156</v>
       </c>
-      <c r="B71" t="s">
-        <v>157</v>
-      </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" t="s">
         <v>158</v>
       </c>
-      <c r="B72" t="s">
-        <v>159</v>
-      </c>
       <c r="C72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" t="s">
         <v>160</v>
       </c>
-      <c r="B73" t="s">
-        <v>161</v>
-      </c>
       <c r="C73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" t="s">
         <v>162</v>
       </c>
-      <c r="B74" t="s">
-        <v>163</v>
-      </c>
       <c r="C74" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" t="s">
         <v>164</v>
       </c>
-      <c r="B75" t="s">
-        <v>165</v>
-      </c>
       <c r="C75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D75" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" t="s">
         <v>166</v>
       </c>
-      <c r="B76" t="s">
-        <v>167</v>
-      </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" t="s">
         <v>168</v>
       </c>
-      <c r="B77" t="s">
-        <v>169</v>
-      </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" t="s">
         <v>170</v>
       </c>
-      <c r="B78" t="s">
-        <v>171</v>
-      </c>
       <c r="C78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" t="s">
         <v>172</v>
       </c>
-      <c r="B79" t="s">
-        <v>173</v>
-      </c>
       <c r="C79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" t="s">
         <v>174</v>
       </c>
-      <c r="B80" t="s">
-        <v>175</v>
-      </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" t="s">
         <v>176</v>
       </c>
-      <c r="B81" t="s">
-        <v>177</v>
-      </c>
       <c r="C81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" t="s">
         <v>178</v>
       </c>
-      <c r="B82" t="s">
-        <v>179</v>
-      </c>
       <c r="C82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" t="s">
         <v>180</v>
       </c>
-      <c r="B83" t="s">
-        <v>181</v>
-      </c>
       <c r="C83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>181</v>
+      </c>
+      <c r="B84" t="s">
         <v>182</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>183</v>
       </c>
-      <c r="C84" t="s">
-        <v>184</v>
-      </c>
       <c r="D84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>184</v>
+      </c>
+      <c r="B85" t="s">
         <v>185</v>
       </c>
-      <c r="B85" t="s">
-        <v>186</v>
-      </c>
       <c r="C85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" t="s">
         <v>187</v>
       </c>
-      <c r="B86" t="s">
-        <v>188</v>
-      </c>
       <c r="C86" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D86" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87" t="s">
         <v>189</v>
       </c>
-      <c r="B87" t="s">
-        <v>190</v>
-      </c>
       <c r="C87" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" t="s">
         <v>191</v>
       </c>
-      <c r="B88" t="s">
-        <v>192</v>
-      </c>
       <c r="C88" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D88" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" t="s">
         <v>193</v>
       </c>
-      <c r="B89" t="s">
-        <v>194</v>
-      </c>
       <c r="C89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>194</v>
+      </c>
+      <c r="B90" t="s">
         <v>195</v>
       </c>
-      <c r="B90" t="s">
-        <v>196</v>
-      </c>
       <c r="C90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" t="s">
         <v>197</v>
       </c>
-      <c r="B91" t="s">
-        <v>198</v>
-      </c>
       <c r="C91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" t="s">
         <v>199</v>
       </c>
-      <c r="B92" t="s">
-        <v>200</v>
-      </c>
       <c r="C92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93" t="s">
         <v>201</v>
       </c>
-      <c r="B93" t="s">
-        <v>202</v>
-      </c>
       <c r="C93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94" t="s">
         <v>203</v>
       </c>
-      <c r="B94" t="s">
-        <v>204</v>
-      </c>
       <c r="C94" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>204</v>
+      </c>
+      <c r="B95" t="s">
         <v>205</v>
       </c>
-      <c r="B95" t="s">
-        <v>206</v>
-      </c>
       <c r="C95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>206</v>
+      </c>
+      <c r="B96" t="s">
         <v>207</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>208</v>
       </c>
-      <c r="C96" t="s">
-        <v>209</v>
-      </c>
       <c r="D96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>209</v>
+      </c>
+      <c r="B97" t="s">
         <v>210</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>211</v>
       </c>
-      <c r="C97" t="s">
-        <v>212</v>
-      </c>
       <c r="D97" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>212</v>
+      </c>
+      <c r="B98" t="s">
         <v>213</v>
       </c>
-      <c r="B98" t="s">
-        <v>214</v>
-      </c>
       <c r="C98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D98" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>214</v>
+      </c>
+      <c r="B99" t="s">
         <v>215</v>
       </c>
-      <c r="B99" t="s">
-        <v>216</v>
-      </c>
       <c r="C99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>216</v>
+      </c>
+      <c r="B100" t="s">
         <v>217</v>
       </c>
-      <c r="B100" t="s">
-        <v>218</v>
-      </c>
       <c r="C100" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D100" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>218</v>
+      </c>
+      <c r="B101" t="s">
         <v>219</v>
       </c>
-      <c r="B101" t="s">
-        <v>220</v>
-      </c>
       <c r="C101" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>220</v>
+      </c>
+      <c r="B102" t="s">
         <v>221</v>
       </c>
-      <c r="B102" t="s">
-        <v>222</v>
-      </c>
       <c r="C102" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D102" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>222</v>
+      </c>
+      <c r="B103" t="s">
         <v>223</v>
       </c>
-      <c r="B103" t="s">
-        <v>224</v>
-      </c>
       <c r="C103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>224</v>
+      </c>
+      <c r="B104" t="s">
         <v>225</v>
       </c>
-      <c r="B104" t="s">
-        <v>226</v>
-      </c>
       <c r="C104" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D104" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>226</v>
+      </c>
+      <c r="B105" t="s">
         <v>227</v>
       </c>
-      <c r="B105" t="s">
-        <v>228</v>
-      </c>
       <c r="C105" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D105" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" t="s">
         <v>229</v>
       </c>
-      <c r="B106" t="s">
-        <v>230</v>
-      </c>
       <c r="C106" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D106" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>230</v>
+      </c>
+      <c r="B107" t="s">
         <v>231</v>
       </c>
-      <c r="B107" t="s">
-        <v>232</v>
-      </c>
       <c r="C107" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>232</v>
+      </c>
+      <c r="B108" t="s">
         <v>233</v>
       </c>
-      <c r="B108" t="s">
-        <v>234</v>
-      </c>
       <c r="C108" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D108" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>234</v>
+      </c>
+      <c r="B109" t="s">
         <v>235</v>
       </c>
-      <c r="B109" t="s">
-        <v>236</v>
-      </c>
       <c r="C109" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D109" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>236</v>
+      </c>
+      <c r="B110" t="s">
         <v>237</v>
       </c>
-      <c r="B110" t="s">
-        <v>238</v>
-      </c>
       <c r="C110" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D110" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>238</v>
+      </c>
+      <c r="B111" t="s">
         <v>239</v>
       </c>
-      <c r="B111" t="s">
-        <v>240</v>
-      </c>
       <c r="C111" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D111" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>240</v>
+      </c>
+      <c r="B112" t="s">
         <v>241</v>
       </c>
-      <c r="B112" t="s">
-        <v>242</v>
-      </c>
       <c r="C112" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D112" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>242</v>
+      </c>
+      <c r="B113" t="s">
         <v>243</v>
       </c>
-      <c r="B113" t="s">
-        <v>244</v>
-      </c>
       <c r="C113" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D113" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>244</v>
+      </c>
+      <c r="B114" t="s">
         <v>245</v>
       </c>
-      <c r="B114" t="s">
-        <v>246</v>
-      </c>
       <c r="C114" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D114" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>246</v>
+      </c>
+      <c r="B115" t="s">
         <v>247</v>
       </c>
-      <c r="B115" t="s">
-        <v>248</v>
-      </c>
       <c r="C115" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D115" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>248</v>
+      </c>
+      <c r="B116" t="s">
         <v>249</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>250</v>
       </c>
-      <c r="C116" t="s">
-        <v>251</v>
-      </c>
       <c r="D116" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>251</v>
+      </c>
+      <c r="B117" t="s">
         <v>252</v>
       </c>
-      <c r="B117" t="s">
-        <v>253</v>
-      </c>
       <c r="C117" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D117" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
+        <v>253</v>
+      </c>
+      <c r="B118" t="s">
         <v>254</v>
       </c>
-      <c r="B118" t="s">
-        <v>255</v>
-      </c>
       <c r="C118" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D118" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
+        <v>255</v>
+      </c>
+      <c r="B119" t="s">
         <v>256</v>
       </c>
-      <c r="B119" t="s">
-        <v>257</v>
-      </c>
       <c r="C119" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D119" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B120" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C120" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D120" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B121" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C121" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D121" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B122" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C122" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D122" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B123" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C123" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D123" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B124" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C124" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D124" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B125" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C125" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D125" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B126" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C126" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D126" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B127" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C127" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B128" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C128" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D128" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B129" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C129" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D129" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B130" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C130" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D130" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B131" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C131" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D131" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B132" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C132" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D132" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B133" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C133" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D133" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B134" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C134" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D134" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B135" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C135" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D135" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B136" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C136" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D136" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B137" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C137" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D137" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B138" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C138" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D138" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B139" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C139" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D139" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B140" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C140" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D140" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B141" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C141" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D141" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B142" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C142" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D142" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B143" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C143" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D143" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B144" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C144" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D144" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>307</v>
+      </c>
+      <c r="B145" t="s">
+        <v>308</v>
+      </c>
+      <c r="C145" t="s">
         <v>309</v>
       </c>
-      <c r="B145" t="s">
-        <v>310</v>
-      </c>
-      <c r="C145" t="s">
-        <v>311</v>
-      </c>
       <c r="D145" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>310</v>
+      </c>
+      <c r="B146" t="s">
+        <v>311</v>
+      </c>
+      <c r="C146" t="s">
         <v>312</v>
       </c>
-      <c r="B146" t="s">
-        <v>313</v>
-      </c>
-      <c r="C146" t="s">
-        <v>314</v>
-      </c>
       <c r="D146" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B147" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C147" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D147" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B148" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C148" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D148" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B149" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C149" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D149" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B150" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C150" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D150" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B151" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C151" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D151" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B152" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C152" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D152" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B153" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C153" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D153" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B154" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C154" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D154" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B155" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C155" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D155" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B156" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C156" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D156" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B157" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C157" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D157" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B158" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C158" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D158" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B159" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C159" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D159" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B160" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C160" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D160" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B161" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C161" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D161" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B162" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C162" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D162" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B163" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C163" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D163" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B164" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C164" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D164" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B165" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C165" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D165" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B166" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C166" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D166" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B167" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C167" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D167" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B168" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C168" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D168" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B169" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C169" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D169" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B170" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C170" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D170" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B171" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C171" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D171" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B172" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C172" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D172" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B173" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C173" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D173" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B174" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C174" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D174" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B175" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C175" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D175" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B176" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C176" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D176" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B177" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C177" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D177" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B178" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C178" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D178" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B179" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C179" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D179" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B180" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C180" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D180" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B181" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C181" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D181" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B182" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C182" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D182" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B183" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C183" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D183" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B184" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C184" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D184" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B185" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C185" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D185" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B186" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C186" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D186" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B187" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C187" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D187" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B188" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C188" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D188" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B189" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C189" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D189" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B190" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C190" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D190" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B191" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C191" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D191" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B192" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C192" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D192" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B193" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C193" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D193" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B194" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C194" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D194" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B195" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C195" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D195" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B196" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C196" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D196" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B197" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C197" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D197" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B198" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C198" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D198" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B199" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C199" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D199" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B200" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C200" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D200" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B201" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C201" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D201" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B202" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C202" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D202" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B203" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C203" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D203" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>463</v>
+      </c>
+      <c r="B205" t="s">
+        <v>464</v>
+      </c>
+      <c r="C205" t="s">
+        <v>464</v>
+      </c>
+      <c r="D205" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>462</v>
+      </c>
+      <c r="B206" t="s">
+        <v>465</v>
+      </c>
+      <c r="C206" t="s">
+        <v>465</v>
+      </c>
+      <c r="D206" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>461</v>
+      </c>
+      <c r="B207" t="s">
+        <v>466</v>
+      </c>
+      <c r="C207" t="s">
+        <v>466</v>
+      </c>
+      <c r="D207" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>460</v>
+      </c>
+      <c r="B208" t="s">
+        <v>467</v>
+      </c>
+      <c r="C208" t="s">
+        <v>467</v>
+      </c>
+      <c r="D208" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>459</v>
+      </c>
+      <c r="B209" t="s">
+        <v>468</v>
+      </c>
+      <c r="C209" t="s">
+        <v>468</v>
+      </c>
+      <c r="D209" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>458</v>
+      </c>
+      <c r="B210" t="s">
+        <v>469</v>
+      </c>
+      <c r="C210" t="s">
+        <v>469</v>
+      </c>
+      <c r="D210" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>457</v>
+      </c>
+      <c r="B211" t="s">
+        <v>470</v>
+      </c>
+      <c r="C211" t="s">
+        <v>470</v>
+      </c>
+      <c r="D211" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>456</v>
+      </c>
+      <c r="B212" t="s">
+        <v>471</v>
+      </c>
+      <c r="C212" t="s">
+        <v>471</v>
+      </c>
+      <c r="D212" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>454</v>
+      </c>
+      <c r="B213" t="s">
+        <v>472</v>
+      </c>
+      <c r="C213" t="s">
+        <v>472</v>
+      </c>
+      <c r="D213" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>455</v>
+      </c>
+      <c r="B214" t="s">
+        <v>473</v>
+      </c>
+      <c r="C214" t="s">
+        <v>473</v>
+      </c>
+      <c r="D214" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>453</v>
+      </c>
+      <c r="B215" t="s">
+        <v>474</v>
+      </c>
+      <c r="C215" t="s">
+        <v>474</v>
+      </c>
+      <c r="D215" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>452</v>
+      </c>
+      <c r="B216" t="s">
+        <v>475</v>
+      </c>
+      <c r="C216" t="s">
+        <v>475</v>
+      </c>
+      <c r="D216" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>451</v>
+      </c>
+      <c r="B217" t="s">
+        <v>476</v>
+      </c>
+      <c r="C217" t="s">
+        <v>476</v>
+      </c>
+      <c r="D217" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>450</v>
+      </c>
+      <c r="B218" t="s">
+        <v>477</v>
+      </c>
+      <c r="C218" t="s">
+        <v>477</v>
+      </c>
+      <c r="D218" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>449</v>
+      </c>
+      <c r="B219" t="s">
+        <v>478</v>
+      </c>
+      <c r="C219" t="s">
+        <v>478</v>
+      </c>
+      <c r="D219" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>448</v>
+      </c>
+      <c r="B220" t="s">
+        <v>479</v>
+      </c>
+      <c r="C220" t="s">
+        <v>479</v>
+      </c>
+      <c r="D220" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>447</v>
+      </c>
+      <c r="B221" t="s">
+        <v>480</v>
+      </c>
+      <c r="C221" t="s">
+        <v>480</v>
+      </c>
+      <c r="D221" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>446</v>
+      </c>
+      <c r="B222" t="s">
+        <v>481</v>
+      </c>
+      <c r="C222" t="s">
+        <v>481</v>
+      </c>
+      <c r="D222" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>445</v>
+      </c>
+      <c r="B223" t="s">
+        <v>482</v>
+      </c>
+      <c r="C223" t="s">
+        <v>482</v>
+      </c>
+      <c r="D223" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>444</v>
+      </c>
+      <c r="B224" t="s">
+        <v>483</v>
+      </c>
+      <c r="C224" t="s">
+        <v>483</v>
+      </c>
+      <c r="D224" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>443</v>
+      </c>
+      <c r="B225" t="s">
+        <v>484</v>
+      </c>
+      <c r="C225" t="s">
+        <v>484</v>
+      </c>
+      <c r="D225" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
         <v>441</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B226" t="s">
+        <v>485</v>
+      </c>
+      <c r="C226" t="s">
+        <v>485</v>
+      </c>
+      <c r="D226" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>442</v>
+      </c>
+      <c r="B227" t="s">
+        <v>486</v>
+      </c>
+      <c r="C227" t="s">
+        <v>486</v>
+      </c>
+      <c r="D227" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
         <v>440</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>441</v>
+      <c r="B228" t="s">
+        <v>487</v>
+      </c>
+      <c r="C228" t="s">
+        <v>487</v>
+      </c>
+      <c r="D228" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Data_Raw/Country codes & metadata/wbcodes_equiv_unicef.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/wbcodes_equiv_unicef.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboral\World Bank\Data-Portal-Brief-Generator\Data\Data_Raw\Country codes &amp; metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A0525C-7C2D-4A8C-9264-1902A87069FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{B6A0525C-7C2D-4A8C-9264-1902A87069FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37F67737-D2D0-4BB6-8CFA-00905460D460}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{4113CD76-B60E-46BE-A214-6074E1BAFEC6}"/>
+    <workbookView xWindow="30" yWindow="750" windowWidth="20460" windowHeight="10770" xr2:uid="{4113CD76-B60E-46BE-A214-6074E1BAFEC6}"/>
   </bookViews>
   <sheets>
     <sheet name="unicef" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="529">
   <si>
     <t>unicef_code</t>
   </si>
@@ -1500,6 +1500,129 @@
   </si>
   <si>
     <t>Virgin Islands (U.S.)</t>
+  </si>
+  <si>
+    <t>World Bank (high income)</t>
+  </si>
+  <si>
+    <t>WB_HI</t>
+  </si>
+  <si>
+    <t>High Income</t>
+  </si>
+  <si>
+    <t>HIC</t>
+  </si>
+  <si>
+    <t>World Bank (low income)</t>
+  </si>
+  <si>
+    <t>WB_LI</t>
+  </si>
+  <si>
+    <t>Low income</t>
+  </si>
+  <si>
+    <t>LIC</t>
+  </si>
+  <si>
+    <t>World Bank (lower middle income)</t>
+  </si>
+  <si>
+    <t>WB_LMI</t>
+  </si>
+  <si>
+    <t>Lower middle income</t>
+  </si>
+  <si>
+    <t>LMC</t>
+  </si>
+  <si>
+    <t>World Bank (upper middle income)</t>
+  </si>
+  <si>
+    <t>WB_UMI</t>
+  </si>
+  <si>
+    <t>Upper middle income</t>
+  </si>
+  <si>
+    <t>UMC</t>
+  </si>
+  <si>
+    <t>WORLD</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>WLD</t>
+  </si>
+  <si>
+    <t>UNFPA_LAC</t>
+  </si>
+  <si>
+    <t>Latin America and the Caribbean</t>
+  </si>
+  <si>
+    <t>Latin America and Caribbean</t>
+  </si>
+  <si>
+    <t>LCN</t>
+  </si>
+  <si>
+    <t>UNICEF_EAP</t>
+  </si>
+  <si>
+    <t>East Asia and Pacific</t>
+  </si>
+  <si>
+    <t>EAS</t>
+  </si>
+  <si>
+    <t>UNICEF_ECARO</t>
+  </si>
+  <si>
+    <t>Europe and Central Asia</t>
+  </si>
+  <si>
+    <t>ECS</t>
+  </si>
+  <si>
+    <t>UNICEF_ROSA</t>
+  </si>
+  <si>
+    <t>South Asia</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>UNICEF_SSA</t>
+  </si>
+  <si>
+    <t>Sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>SSF</t>
+  </si>
+  <si>
+    <t>UNICEF_MENA</t>
+  </si>
+  <si>
+    <t>Middle East and North Africa</t>
+  </si>
+  <si>
+    <t>MEA</t>
+  </si>
+  <si>
+    <t>UNICEF_NA</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>NAC</t>
   </si>
 </sst>
 </file>
@@ -1592,10 +1715,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1633,7 +1760,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1739,7 +1866,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1881,7 +2008,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1889,15 +2016,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E591674A-0250-4337-8608-CACAB3DE8C37}">
-  <dimension ref="A1:D228"/>
+  <dimension ref="A1:D240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="D241" sqref="D241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1911,7 +2038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1925,7 +2052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1939,7 +2066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1953,7 +2080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1967,7 +2094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1981,7 +2108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1995,7 +2122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2009,7 +2136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2023,7 +2150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2037,7 +2164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2051,7 +2178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2065,7 +2192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2079,7 +2206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2093,7 +2220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -2107,7 +2234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2121,7 +2248,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2135,7 +2262,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2149,7 +2276,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2163,7 +2290,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2177,7 +2304,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2191,7 +2318,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2205,7 +2332,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2219,7 +2346,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -2233,7 +2360,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -2247,7 +2374,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2261,7 +2388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -2275,7 +2402,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -2289,7 +2416,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2303,7 +2430,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2317,7 +2444,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -2331,7 +2458,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -2345,7 +2472,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -2359,7 +2486,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -2373,7 +2500,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -2387,7 +2514,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -2401,7 +2528,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -2415,7 +2542,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -2429,7 +2556,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -2443,7 +2570,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -2457,7 +2584,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -2471,7 +2598,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -2485,7 +2612,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -2499,7 +2626,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -2513,7 +2640,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -2527,7 +2654,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -2541,7 +2668,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -2555,7 +2682,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -2569,7 +2696,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -2583,7 +2710,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>108</v>
       </c>
@@ -2597,7 +2724,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>111</v>
       </c>
@@ -2611,7 +2738,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>114</v>
       </c>
@@ -2625,7 +2752,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>116</v>
       </c>
@@ -2639,7 +2766,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>118</v>
       </c>
@@ -2653,7 +2780,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>120</v>
       </c>
@@ -2667,7 +2794,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>122</v>
       </c>
@@ -2681,7 +2808,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>124</v>
       </c>
@@ -2695,7 +2822,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>127</v>
       </c>
@@ -2709,7 +2836,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>129</v>
       </c>
@@ -2723,7 +2850,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -2737,7 +2864,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>133</v>
       </c>
@@ -2751,7 +2878,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>135</v>
       </c>
@@ -2765,7 +2892,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -2779,7 +2906,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>140</v>
       </c>
@@ -2793,7 +2920,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -2807,7 +2934,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>144</v>
       </c>
@@ -2821,7 +2948,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -2835,7 +2962,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>149</v>
       </c>
@@ -2849,7 +2976,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>151</v>
       </c>
@@ -2863,7 +2990,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>153</v>
       </c>
@@ -2877,7 +3004,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>155</v>
       </c>
@@ -2891,7 +3018,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>157</v>
       </c>
@@ -2905,7 +3032,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -2919,7 +3046,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>161</v>
       </c>
@@ -2933,7 +3060,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>163</v>
       </c>
@@ -2947,7 +3074,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>165</v>
       </c>
@@ -2961,7 +3088,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>167</v>
       </c>
@@ -2975,7 +3102,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>169</v>
       </c>
@@ -2989,7 +3116,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>171</v>
       </c>
@@ -3003,7 +3130,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>173</v>
       </c>
@@ -3017,7 +3144,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>175</v>
       </c>
@@ -3031,7 +3158,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>177</v>
       </c>
@@ -3045,7 +3172,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>179</v>
       </c>
@@ -3059,7 +3186,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>181</v>
       </c>
@@ -3073,7 +3200,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>184</v>
       </c>
@@ -3087,7 +3214,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>186</v>
       </c>
@@ -3101,7 +3228,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>188</v>
       </c>
@@ -3115,7 +3242,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>190</v>
       </c>
@@ -3129,7 +3256,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>192</v>
       </c>
@@ -3143,7 +3270,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>194</v>
       </c>
@@ -3157,7 +3284,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>196</v>
       </c>
@@ -3171,7 +3298,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>198</v>
       </c>
@@ -3185,7 +3312,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>200</v>
       </c>
@@ -3199,7 +3326,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>202</v>
       </c>
@@ -3213,7 +3340,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>204</v>
       </c>
@@ -3227,7 +3354,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>206</v>
       </c>
@@ -3241,7 +3368,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>209</v>
       </c>
@@ -3255,7 +3382,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>212</v>
       </c>
@@ -3269,7 +3396,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>214</v>
       </c>
@@ -3283,7 +3410,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>216</v>
       </c>
@@ -3297,7 +3424,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>218</v>
       </c>
@@ -3311,7 +3438,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>220</v>
       </c>
@@ -3325,7 +3452,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>222</v>
       </c>
@@ -3339,7 +3466,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>224</v>
       </c>
@@ -3353,7 +3480,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>226</v>
       </c>
@@ -3367,7 +3494,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>228</v>
       </c>
@@ -3381,7 +3508,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>230</v>
       </c>
@@ -3395,7 +3522,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>232</v>
       </c>
@@ -3409,7 +3536,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>234</v>
       </c>
@@ -3423,7 +3550,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>236</v>
       </c>
@@ -3437,7 +3564,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>238</v>
       </c>
@@ -3451,7 +3578,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>240</v>
       </c>
@@ -3465,7 +3592,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>242</v>
       </c>
@@ -3479,7 +3606,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>244</v>
       </c>
@@ -3493,7 +3620,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>246</v>
       </c>
@@ -3507,7 +3634,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>248</v>
       </c>
@@ -3521,7 +3648,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>251</v>
       </c>
@@ -3535,7 +3662,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>253</v>
       </c>
@@ -3549,7 +3676,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>255</v>
       </c>
@@ -3563,7 +3690,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>257</v>
       </c>
@@ -3577,7 +3704,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>259</v>
       </c>
@@ -3591,7 +3718,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>261</v>
       </c>
@@ -3605,7 +3732,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>263</v>
       </c>
@@ -3619,7 +3746,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>265</v>
       </c>
@@ -3633,7 +3760,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>267</v>
       </c>
@@ -3647,7 +3774,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>269</v>
       </c>
@@ -3661,7 +3788,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>271</v>
       </c>
@@ -3675,7 +3802,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>273</v>
       </c>
@@ -3689,7 +3816,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>275</v>
       </c>
@@ -3703,7 +3830,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>277</v>
       </c>
@@ -3717,7 +3844,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>279</v>
       </c>
@@ -3731,7 +3858,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>281</v>
       </c>
@@ -3745,7 +3872,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>283</v>
       </c>
@@ -3759,7 +3886,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>285</v>
       </c>
@@ -3773,7 +3900,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>287</v>
       </c>
@@ -3787,7 +3914,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>289</v>
       </c>
@@ -3801,7 +3928,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>291</v>
       </c>
@@ -3815,7 +3942,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>293</v>
       </c>
@@ -3829,7 +3956,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>295</v>
       </c>
@@ -3843,7 +3970,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>297</v>
       </c>
@@ -3857,7 +3984,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>299</v>
       </c>
@@ -3871,7 +3998,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>301</v>
       </c>
@@ -3885,7 +4012,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>303</v>
       </c>
@@ -3899,7 +4026,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>305</v>
       </c>
@@ -3913,7 +4040,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>307</v>
       </c>
@@ -3927,7 +4054,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>310</v>
       </c>
@@ -3941,7 +4068,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>313</v>
       </c>
@@ -3955,7 +4082,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>315</v>
       </c>
@@ -3969,7 +4096,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>317</v>
       </c>
@@ -3983,7 +4110,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>319</v>
       </c>
@@ -3997,7 +4124,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>322</v>
       </c>
@@ -4011,7 +4138,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>325</v>
       </c>
@@ -4025,7 +4152,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>328</v>
       </c>
@@ -4039,7 +4166,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>330</v>
       </c>
@@ -4053,7 +4180,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>332</v>
       </c>
@@ -4067,7 +4194,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>334</v>
       </c>
@@ -4081,7 +4208,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>336</v>
       </c>
@@ -4095,7 +4222,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>338</v>
       </c>
@@ -4109,7 +4236,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>340</v>
       </c>
@@ -4123,7 +4250,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>342</v>
       </c>
@@ -4137,7 +4264,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>344</v>
       </c>
@@ -4151,7 +4278,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>346</v>
       </c>
@@ -4165,7 +4292,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>349</v>
       </c>
@@ -4179,7 +4306,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>351</v>
       </c>
@@ -4193,7 +4320,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>353</v>
       </c>
@@ -4207,7 +4334,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>355</v>
       </c>
@@ -4221,7 +4348,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>357</v>
       </c>
@@ -4235,7 +4362,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>359</v>
       </c>
@@ -4249,7 +4376,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>361</v>
       </c>
@@ -4263,7 +4390,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>363</v>
       </c>
@@ -4277,7 +4404,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>365</v>
       </c>
@@ -4291,7 +4418,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>367</v>
       </c>
@@ -4305,7 +4432,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>369</v>
       </c>
@@ -4319,7 +4446,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>371</v>
       </c>
@@ -4333,7 +4460,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>373</v>
       </c>
@@ -4347,7 +4474,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>375</v>
       </c>
@@ -4361,7 +4488,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>377</v>
       </c>
@@ -4375,7 +4502,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>379</v>
       </c>
@@ -4389,7 +4516,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>381</v>
       </c>
@@ -4403,7 +4530,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>384</v>
       </c>
@@ -4417,7 +4544,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>386</v>
       </c>
@@ -4431,7 +4558,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>388</v>
       </c>
@@ -4445,7 +4572,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>390</v>
       </c>
@@ -4459,7 +4586,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>392</v>
       </c>
@@ -4473,7 +4600,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>394</v>
       </c>
@@ -4487,7 +4614,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>396</v>
       </c>
@@ -4501,7 +4628,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>398</v>
       </c>
@@ -4515,7 +4642,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>400</v>
       </c>
@@ -4529,7 +4656,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>403</v>
       </c>
@@ -4543,7 +4670,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>405</v>
       </c>
@@ -4557,7 +4684,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>407</v>
       </c>
@@ -4571,7 +4698,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>409</v>
       </c>
@@ -4585,7 +4712,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>411</v>
       </c>
@@ -4599,7 +4726,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>413</v>
       </c>
@@ -4613,7 +4740,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>416</v>
       </c>
@@ -4627,7 +4754,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>418</v>
       </c>
@@ -4641,7 +4768,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>420</v>
       </c>
@@ -4655,7 +4782,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>422</v>
       </c>
@@ -4669,7 +4796,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>424</v>
       </c>
@@ -4683,7 +4810,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>427</v>
       </c>
@@ -4697,7 +4824,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>430</v>
       </c>
@@ -4711,7 +4838,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>433</v>
       </c>
@@ -4725,7 +4852,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>435</v>
       </c>
@@ -4739,7 +4866,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="204" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>438</v>
       </c>
@@ -4753,7 +4880,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>463</v>
       </c>
@@ -4767,7 +4894,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>462</v>
       </c>
@@ -4781,7 +4908,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>461</v>
       </c>
@@ -4795,7 +4922,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>460</v>
       </c>
@@ -4809,7 +4936,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>459</v>
       </c>
@@ -4823,7 +4950,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>458</v>
       </c>
@@ -4837,7 +4964,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>457</v>
       </c>
@@ -4851,7 +4978,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>456</v>
       </c>
@@ -4865,7 +4992,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>454</v>
       </c>
@@ -4879,7 +5006,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>455</v>
       </c>
@@ -4893,7 +5020,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>453</v>
       </c>
@@ -4907,7 +5034,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>452</v>
       </c>
@@ -4921,7 +5048,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>451</v>
       </c>
@@ -4935,7 +5062,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>450</v>
       </c>
@@ -4949,7 +5076,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>449</v>
       </c>
@@ -4963,7 +5090,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>448</v>
       </c>
@@ -4977,7 +5104,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>447</v>
       </c>
@@ -4991,7 +5118,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>446</v>
       </c>
@@ -5005,7 +5132,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>445</v>
       </c>
@@ -5019,7 +5146,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>444</v>
       </c>
@@ -5033,7 +5160,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>443</v>
       </c>
@@ -5047,7 +5174,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>441</v>
       </c>
@@ -5061,7 +5188,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>442</v>
       </c>
@@ -5075,7 +5202,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>440</v>
       </c>
@@ -5087,6 +5214,174 @@
       </c>
       <c r="D228" t="s">
         <v>440</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>489</v>
+      </c>
+      <c r="B229" t="s">
+        <v>488</v>
+      </c>
+      <c r="C229" t="s">
+        <v>490</v>
+      </c>
+      <c r="D229" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>493</v>
+      </c>
+      <c r="B230" t="s">
+        <v>492</v>
+      </c>
+      <c r="C230" t="s">
+        <v>494</v>
+      </c>
+      <c r="D230" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>497</v>
+      </c>
+      <c r="B231" t="s">
+        <v>496</v>
+      </c>
+      <c r="C231" t="s">
+        <v>498</v>
+      </c>
+      <c r="D231" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>501</v>
+      </c>
+      <c r="B232" t="s">
+        <v>500</v>
+      </c>
+      <c r="C232" t="s">
+        <v>502</v>
+      </c>
+      <c r="D232" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>504</v>
+      </c>
+      <c r="B233" t="s">
+        <v>505</v>
+      </c>
+      <c r="C233" t="s">
+        <v>505</v>
+      </c>
+      <c r="D233" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>507</v>
+      </c>
+      <c r="B234" t="s">
+        <v>508</v>
+      </c>
+      <c r="C234" t="s">
+        <v>509</v>
+      </c>
+      <c r="D234" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>511</v>
+      </c>
+      <c r="B235" t="s">
+        <v>512</v>
+      </c>
+      <c r="C235" t="s">
+        <v>512</v>
+      </c>
+      <c r="D235" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>514</v>
+      </c>
+      <c r="B236" t="s">
+        <v>515</v>
+      </c>
+      <c r="C236" t="s">
+        <v>515</v>
+      </c>
+      <c r="D236" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>517</v>
+      </c>
+      <c r="B237" t="s">
+        <v>518</v>
+      </c>
+      <c r="C237" t="s">
+        <v>518</v>
+      </c>
+      <c r="D237" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>520</v>
+      </c>
+      <c r="B238" t="s">
+        <v>521</v>
+      </c>
+      <c r="C238" t="s">
+        <v>521</v>
+      </c>
+      <c r="D238" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>523</v>
+      </c>
+      <c r="B239" t="s">
+        <v>524</v>
+      </c>
+      <c r="C239" t="s">
+        <v>524</v>
+      </c>
+      <c r="D239" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>526</v>
+      </c>
+      <c r="B240" t="s">
+        <v>527</v>
+      </c>
+      <c r="C240" t="s">
+        <v>527</v>
+      </c>
+      <c r="D240" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>
